--- a/database/industries/lastic/pekerman/product/quarterly_seprated.xlsx
+++ b/database/industries/lastic/pekerman/product/quarterly_seprated.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\pekerman\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310620CB-56AA-4B8D-AD7B-312A55F3B038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="5550"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="49">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,21 +34,6 @@
   </si>
   <si>
     <t>مقدار فروش</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1400/03</t>
   </si>
   <si>
     <t>فصل دوم منتهی به 1400/06</t>
@@ -187,7 +171,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,7 +364,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -392,7 +376,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -439,23 +423,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -491,23 +458,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -659,17 +609,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="14" width="20" customWidth="1"/>
+    <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -678,13 +628,8 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -695,13 +640,8 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -712,13 +652,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -727,13 +662,8 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -744,13 +674,8 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -761,13 +686,8 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -776,13 +696,8 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -803,23 +718,8 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -828,15 +728,10 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -845,208 +740,128 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>416270</v>
+        <v>423499</v>
       </c>
       <c r="F11" s="11">
-        <v>439021</v>
+        <v>452478</v>
       </c>
       <c r="G11" s="11">
-        <v>358948</v>
+        <v>342299</v>
       </c>
       <c r="H11" s="11">
-        <v>389127</v>
+        <v>284127</v>
       </c>
       <c r="I11" s="11">
-        <v>348201</v>
-      </c>
-      <c r="J11" s="11">
-        <v>423499</v>
-      </c>
-      <c r="K11" s="11">
-        <v>452478</v>
-      </c>
-      <c r="L11" s="11">
-        <v>342299</v>
-      </c>
-      <c r="M11" s="11">
-        <v>284127</v>
-      </c>
-      <c r="N11" s="11">
         <v>341622</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>639721</v>
+        <v>774368</v>
       </c>
       <c r="F12" s="13">
-        <v>885464</v>
+        <v>642542</v>
       </c>
       <c r="G12" s="13">
-        <v>794658</v>
+        <v>652860</v>
       </c>
       <c r="H12" s="13">
-        <v>732535</v>
+        <v>629726</v>
       </c>
       <c r="I12" s="13">
-        <v>851542</v>
-      </c>
-      <c r="J12" s="13">
-        <v>774368</v>
-      </c>
-      <c r="K12" s="13">
-        <v>642542</v>
-      </c>
-      <c r="L12" s="13">
-        <v>652860</v>
-      </c>
-      <c r="M12" s="13">
-        <v>629726</v>
-      </c>
-      <c r="N12" s="13">
         <v>737586</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>6835785</v>
+        <v>8686935</v>
       </c>
       <c r="F13" s="11">
-        <v>6826923</v>
+        <v>6703593</v>
       </c>
       <c r="G13" s="11">
-        <v>6781190</v>
+        <v>6281522</v>
       </c>
       <c r="H13" s="11">
-        <v>6714435</v>
+        <v>7900221</v>
       </c>
       <c r="I13" s="11">
-        <v>7849877</v>
-      </c>
-      <c r="J13" s="11">
-        <v>8686935</v>
-      </c>
-      <c r="K13" s="11">
-        <v>6703593</v>
-      </c>
-      <c r="L13" s="11">
-        <v>6281522</v>
-      </c>
-      <c r="M13" s="11">
-        <v>7900221</v>
-      </c>
-      <c r="N13" s="11">
         <v>7941926</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>12681831</v>
+        <v>14246224</v>
       </c>
       <c r="F14" s="13">
-        <v>13554492</v>
+        <v>14893295</v>
       </c>
       <c r="G14" s="13">
-        <v>13161211</v>
+        <v>13722131</v>
       </c>
       <c r="H14" s="13">
-        <v>13741898</v>
+        <v>13113469</v>
       </c>
       <c r="I14" s="13">
-        <v>12551615</v>
-      </c>
-      <c r="J14" s="13">
-        <v>14246224</v>
-      </c>
-      <c r="K14" s="13">
-        <v>14893295</v>
-      </c>
-      <c r="L14" s="13">
-        <v>13722131</v>
-      </c>
-      <c r="M14" s="13">
-        <v>13113469</v>
-      </c>
-      <c r="N14" s="13">
         <v>15299404</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15">
-        <v>20573607</v>
+        <v>24131026</v>
       </c>
       <c r="F15" s="15">
-        <v>21705900</v>
+        <v>22691908</v>
       </c>
       <c r="G15" s="15">
-        <v>21096007</v>
+        <v>20998812</v>
       </c>
       <c r="H15" s="15">
-        <v>21577995</v>
+        <v>21927543</v>
       </c>
       <c r="I15" s="15">
-        <v>21601235</v>
-      </c>
-      <c r="J15" s="15">
-        <v>24131026</v>
-      </c>
-      <c r="K15" s="15">
-        <v>22691908</v>
-      </c>
-      <c r="L15" s="15">
-        <v>20998812</v>
-      </c>
-      <c r="M15" s="15">
-        <v>21927543</v>
-      </c>
-      <c r="N15" s="15">
         <v>24320538</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1055,18 +870,13 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
@@ -1081,31 +891,16 @@
       <c r="H17" s="11">
         <v>0</v>
       </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-      <c r="J17" s="11">
-        <v>0</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0</v>
-      </c>
-      <c r="L17" s="11">
-        <v>0</v>
-      </c>
-      <c r="M17" s="11">
-        <v>0</v>
-      </c>
-      <c r="N17" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I17" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
@@ -1121,30 +916,15 @@
         <v>0</v>
       </c>
       <c r="I18" s="13">
-        <v>0</v>
-      </c>
-      <c r="J18" s="13">
-        <v>0</v>
-      </c>
-      <c r="K18" s="13">
-        <v>0</v>
-      </c>
-      <c r="L18" s="13">
-        <v>0</v>
-      </c>
-      <c r="M18" s="13">
-        <v>0</v>
-      </c>
-      <c r="N18" s="13">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
@@ -1160,30 +940,15 @@
         <v>0</v>
       </c>
       <c r="I19" s="11">
-        <v>0</v>
-      </c>
-      <c r="J19" s="11">
-        <v>0</v>
-      </c>
-      <c r="K19" s="11">
-        <v>0</v>
-      </c>
-      <c r="L19" s="11">
-        <v>0</v>
-      </c>
-      <c r="M19" s="11">
-        <v>0</v>
-      </c>
-      <c r="N19" s="11">
         <v>106678</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
@@ -1199,27 +964,12 @@
         <v>0</v>
       </c>
       <c r="I20" s="13">
-        <v>0</v>
-      </c>
-      <c r="J20" s="13">
-        <v>0</v>
-      </c>
-      <c r="K20" s="13">
-        <v>0</v>
-      </c>
-      <c r="L20" s="13">
-        <v>0</v>
-      </c>
-      <c r="M20" s="13">
-        <v>0</v>
-      </c>
-      <c r="N20" s="13">
         <v>168918</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
@@ -1236,27 +986,12 @@
         <v>0</v>
       </c>
       <c r="I21" s="15">
-        <v>0</v>
-      </c>
-      <c r="J21" s="15">
-        <v>0</v>
-      </c>
-      <c r="K21" s="15">
-        <v>0</v>
-      </c>
-      <c r="L21" s="15">
-        <v>0</v>
-      </c>
-      <c r="M21" s="15">
-        <v>0</v>
-      </c>
-      <c r="N21" s="15">
         <v>275610</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -1265,15 +1000,10 @@
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -1292,64 +1022,34 @@
       <c r="I23" s="15">
         <v>0</v>
       </c>
-      <c r="J23" s="15">
-        <v>0</v>
-      </c>
-      <c r="K23" s="15">
-        <v>0</v>
-      </c>
-      <c r="L23" s="15">
-        <v>0</v>
-      </c>
-      <c r="M23" s="15">
-        <v>0</v>
-      </c>
-      <c r="N23" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D24" s="19"/>
-      <c r="E24" s="19">
-        <v>0</v>
-      </c>
-      <c r="F24" s="19">
-        <v>0</v>
-      </c>
-      <c r="G24" s="19">
-        <v>0</v>
+      <c r="E24" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="L24" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="N24" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -1362,66 +1062,36 @@
       <c r="G25" s="15">
         <v>0</v>
       </c>
-      <c r="H25" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="15">
-        <v>0</v>
-      </c>
-      <c r="K25" s="15">
-        <v>0</v>
-      </c>
-      <c r="L25" s="15">
-        <v>0</v>
-      </c>
-      <c r="M25" s="15">
-        <v>0</v>
-      </c>
-      <c r="N25" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="H25" s="15">
+        <v>0</v>
+      </c>
+      <c r="I25" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19">
-        <v>20573607</v>
+        <v>24131026</v>
       </c>
       <c r="F26" s="19">
-        <v>21705900</v>
+        <v>22691908</v>
       </c>
       <c r="G26" s="19">
-        <v>21096007</v>
+        <v>20998812</v>
       </c>
       <c r="H26" s="19">
-        <v>21577995</v>
+        <v>21927543</v>
       </c>
       <c r="I26" s="19">
-        <v>21601235</v>
-      </c>
-      <c r="J26" s="19">
-        <v>24131026</v>
-      </c>
-      <c r="K26" s="19">
-        <v>22691908</v>
-      </c>
-      <c r="L26" s="19">
-        <v>20998812</v>
-      </c>
-      <c r="M26" s="19">
-        <v>21927543</v>
-      </c>
-      <c r="N26" s="19">
         <v>24596148</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1430,13 +1100,8 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1445,13 +1110,8 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1460,15 +1120,10 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -1487,23 +1142,8 @@
       <c r="I30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J30" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1512,15 +1152,10 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -1529,208 +1164,128 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
-        <v>85755</v>
+        <v>122971</v>
       </c>
       <c r="F33" s="11">
-        <v>137065</v>
+        <v>132163</v>
       </c>
       <c r="G33" s="11">
-        <v>107539</v>
+        <v>109133</v>
       </c>
       <c r="H33" s="11">
-        <v>114548</v>
+        <v>117806</v>
       </c>
       <c r="I33" s="11">
-        <v>102253</v>
-      </c>
-      <c r="J33" s="11">
-        <v>122971</v>
-      </c>
-      <c r="K33" s="11">
-        <v>132163</v>
-      </c>
-      <c r="L33" s="11">
-        <v>109133</v>
-      </c>
-      <c r="M33" s="11">
-        <v>117806</v>
-      </c>
-      <c r="N33" s="11">
         <v>160400</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
-        <v>196175</v>
+        <v>439876</v>
       </c>
       <c r="F34" s="13">
-        <v>485958</v>
+        <v>370104</v>
       </c>
       <c r="G34" s="13">
-        <v>459723</v>
+        <v>443755</v>
       </c>
       <c r="H34" s="13">
-        <v>421650</v>
+        <v>461275</v>
       </c>
       <c r="I34" s="13">
-        <v>493131</v>
-      </c>
-      <c r="J34" s="13">
-        <v>439876</v>
-      </c>
-      <c r="K34" s="13">
-        <v>370104</v>
-      </c>
-      <c r="L34" s="13">
-        <v>443755</v>
-      </c>
-      <c r="M34" s="13">
-        <v>461275</v>
-      </c>
-      <c r="N34" s="13">
         <v>607702</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11">
-        <v>1637183</v>
+        <v>4767502</v>
       </c>
       <c r="F35" s="11">
-        <v>2553347</v>
+        <v>3769844</v>
       </c>
       <c r="G35" s="11">
-        <v>2783960</v>
+        <v>3923712</v>
       </c>
       <c r="H35" s="11">
-        <v>3737832</v>
+        <v>5044081</v>
       </c>
       <c r="I35" s="11">
-        <v>4307167</v>
-      </c>
-      <c r="J35" s="11">
-        <v>4767502</v>
-      </c>
-      <c r="K35" s="11">
-        <v>3769844</v>
-      </c>
-      <c r="L35" s="11">
-        <v>3923712</v>
-      </c>
-      <c r="M35" s="11">
-        <v>5044081</v>
-      </c>
-      <c r="N35" s="11">
         <v>5834261</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>2999702</v>
+        <v>7725946</v>
       </c>
       <c r="F36" s="13">
-        <v>4780146</v>
+        <v>8276645</v>
       </c>
       <c r="G36" s="13">
-        <v>5518542</v>
+        <v>8146114</v>
       </c>
       <c r="H36" s="13">
-        <v>7625957</v>
+        <v>8580641</v>
       </c>
       <c r="I36" s="13">
-        <v>6635100</v>
-      </c>
-      <c r="J36" s="13">
-        <v>7725946</v>
-      </c>
-      <c r="K36" s="13">
-        <v>8276645</v>
-      </c>
-      <c r="L36" s="13">
-        <v>8146114</v>
-      </c>
-      <c r="M36" s="13">
-        <v>8580641</v>
-      </c>
-      <c r="N36" s="13">
         <v>11822764</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15">
-        <v>4918815</v>
+        <v>13056295</v>
       </c>
       <c r="F37" s="15">
-        <v>7956516</v>
+        <v>12548756</v>
       </c>
       <c r="G37" s="15">
-        <v>8869764</v>
+        <v>12622714</v>
       </c>
       <c r="H37" s="15">
-        <v>11899987</v>
+        <v>14203803</v>
       </c>
       <c r="I37" s="15">
-        <v>11537651</v>
-      </c>
-      <c r="J37" s="15">
-        <v>13056295</v>
-      </c>
-      <c r="K37" s="15">
-        <v>12548756</v>
-      </c>
-      <c r="L37" s="15">
-        <v>12622714</v>
-      </c>
-      <c r="M37" s="15">
-        <v>14203803</v>
-      </c>
-      <c r="N37" s="15">
         <v>18425127</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -1739,18 +1294,13 @@
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
@@ -1765,31 +1315,16 @@
       <c r="H39" s="11">
         <v>0</v>
       </c>
-      <c r="I39" s="11">
-        <v>0</v>
-      </c>
-      <c r="J39" s="11">
-        <v>0</v>
-      </c>
-      <c r="K39" s="11">
-        <v>0</v>
-      </c>
-      <c r="L39" s="11">
-        <v>0</v>
-      </c>
-      <c r="M39" s="11">
-        <v>0</v>
-      </c>
-      <c r="N39" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I39" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13">
@@ -1805,30 +1340,15 @@
         <v>0</v>
       </c>
       <c r="I40" s="13">
-        <v>0</v>
-      </c>
-      <c r="J40" s="13">
-        <v>0</v>
-      </c>
-      <c r="K40" s="13">
-        <v>0</v>
-      </c>
-      <c r="L40" s="13">
-        <v>0</v>
-      </c>
-      <c r="M40" s="13">
-        <v>0</v>
-      </c>
-      <c r="N40" s="13">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
@@ -1844,30 +1364,15 @@
         <v>0</v>
       </c>
       <c r="I41" s="11">
-        <v>0</v>
-      </c>
-      <c r="J41" s="11">
-        <v>0</v>
-      </c>
-      <c r="K41" s="11">
-        <v>0</v>
-      </c>
-      <c r="L41" s="11">
-        <v>0</v>
-      </c>
-      <c r="M41" s="11">
-        <v>0</v>
-      </c>
-      <c r="N41" s="11">
         <v>76779</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13">
@@ -1883,27 +1388,12 @@
         <v>0</v>
       </c>
       <c r="I42" s="13">
-        <v>0</v>
-      </c>
-      <c r="J42" s="13">
-        <v>0</v>
-      </c>
-      <c r="K42" s="13">
-        <v>0</v>
-      </c>
-      <c r="L42" s="13">
-        <v>0</v>
-      </c>
-      <c r="M42" s="13">
-        <v>0</v>
-      </c>
-      <c r="N42" s="13">
         <v>120153</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
@@ -1920,27 +1410,12 @@
         <v>0</v>
       </c>
       <c r="I43" s="15">
-        <v>0</v>
-      </c>
-      <c r="J43" s="15">
-        <v>0</v>
-      </c>
-      <c r="K43" s="15">
-        <v>0</v>
-      </c>
-      <c r="L43" s="15">
-        <v>0</v>
-      </c>
-      <c r="M43" s="15">
-        <v>0</v>
-      </c>
-      <c r="N43" s="15">
         <v>196947</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
@@ -1949,15 +1424,10 @@
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
@@ -1976,67 +1446,37 @@
       <c r="I45" s="15">
         <v>0</v>
       </c>
-      <c r="J45" s="15">
-        <v>0</v>
-      </c>
-      <c r="K45" s="15">
-        <v>0</v>
-      </c>
-      <c r="L45" s="15">
-        <v>0</v>
-      </c>
-      <c r="M45" s="15">
-        <v>0</v>
-      </c>
-      <c r="N45" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D46" s="19"/>
-      <c r="E46" s="19">
-        <v>0</v>
-      </c>
-      <c r="F46" s="19">
-        <v>0</v>
-      </c>
-      <c r="G46" s="19">
-        <v>0</v>
+      <c r="E46" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I46" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="J46" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="K46" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="L46" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M46" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="N46" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D47" s="15"/>
       <c r="E47" s="15">
@@ -2048,66 +1488,36 @@
       <c r="G47" s="15">
         <v>0</v>
       </c>
-      <c r="H47" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I47" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J47" s="15">
-        <v>0</v>
-      </c>
-      <c r="K47" s="15">
-        <v>0</v>
-      </c>
-      <c r="L47" s="15">
-        <v>0</v>
-      </c>
-      <c r="M47" s="15">
-        <v>0</v>
-      </c>
-      <c r="N47" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="H47" s="15">
+        <v>0</v>
+      </c>
+      <c r="I47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
       <c r="E48" s="19">
-        <v>4918815</v>
+        <v>13056295</v>
       </c>
       <c r="F48" s="19">
-        <v>7956516</v>
+        <v>12548756</v>
       </c>
       <c r="G48" s="19">
-        <v>8869764</v>
+        <v>12622714</v>
       </c>
       <c r="H48" s="19">
-        <v>11899987</v>
+        <v>14203803</v>
       </c>
       <c r="I48" s="19">
-        <v>11537651</v>
-      </c>
-      <c r="J48" s="19">
-        <v>13056295</v>
-      </c>
-      <c r="K48" s="19">
-        <v>12548756</v>
-      </c>
-      <c r="L48" s="19">
-        <v>12622714</v>
-      </c>
-      <c r="M48" s="19">
-        <v>14203803</v>
-      </c>
-      <c r="N48" s="19">
         <v>18622074</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2116,13 +1526,8 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2131,13 +1536,8 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2146,15 +1546,10 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-    </row>
-    <row r="52" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -2173,23 +1568,8 @@
       <c r="I52" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J52" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K52" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L52" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M52" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N52" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2198,15 +1578,10 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -2215,171 +1590,106 @@
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
-        <v>206008</v>
+        <v>290369</v>
       </c>
       <c r="F55" s="11">
-        <v>312206</v>
+        <v>292083</v>
       </c>
       <c r="G55" s="11">
-        <v>299595</v>
+        <v>318824</v>
       </c>
       <c r="H55" s="11">
-        <v>294372</v>
+        <v>414624</v>
       </c>
       <c r="I55" s="11">
-        <v>293661</v>
-      </c>
-      <c r="J55" s="11">
-        <v>290369</v>
-      </c>
-      <c r="K55" s="11">
-        <v>292083</v>
-      </c>
-      <c r="L55" s="11">
-        <v>318824</v>
-      </c>
-      <c r="M55" s="11">
-        <v>414624</v>
-      </c>
-      <c r="N55" s="11">
         <v>469525</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>306657</v>
+        <v>568045</v>
       </c>
       <c r="F56" s="13">
-        <v>548817</v>
+        <v>576001</v>
       </c>
       <c r="G56" s="13">
-        <v>578517</v>
+        <v>679709</v>
       </c>
       <c r="H56" s="13">
-        <v>575604</v>
+        <v>732501</v>
       </c>
       <c r="I56" s="13">
-        <v>579104</v>
-      </c>
-      <c r="J56" s="13">
-        <v>568045</v>
-      </c>
-      <c r="K56" s="13">
-        <v>576001</v>
-      </c>
-      <c r="L56" s="13">
-        <v>679709</v>
-      </c>
-      <c r="M56" s="13">
-        <v>732501</v>
-      </c>
-      <c r="N56" s="13">
         <v>823907</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
-        <v>239502</v>
+        <v>548813</v>
       </c>
       <c r="F57" s="11">
-        <v>374011</v>
+        <v>562362</v>
       </c>
       <c r="G57" s="11">
-        <v>410542</v>
+        <v>624644</v>
       </c>
       <c r="H57" s="11">
-        <v>556686</v>
+        <v>638473</v>
       </c>
       <c r="I57" s="11">
-        <v>548692</v>
-      </c>
-      <c r="J57" s="11">
-        <v>548813</v>
-      </c>
-      <c r="K57" s="11">
-        <v>562362</v>
-      </c>
-      <c r="L57" s="11">
-        <v>624644</v>
-      </c>
-      <c r="M57" s="11">
-        <v>638473</v>
-      </c>
-      <c r="N57" s="11">
         <v>734615</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
-        <v>236535</v>
+        <v>542315</v>
       </c>
       <c r="F58" s="13">
-        <v>352661</v>
+        <v>555730</v>
       </c>
       <c r="G58" s="13">
-        <v>419304</v>
+        <v>593648</v>
       </c>
       <c r="H58" s="13">
-        <v>554942</v>
+        <v>654338</v>
       </c>
       <c r="I58" s="13">
-        <v>528625</v>
-      </c>
-      <c r="J58" s="13">
-        <v>542315</v>
-      </c>
-      <c r="K58" s="13">
-        <v>555730</v>
-      </c>
-      <c r="L58" s="13">
-        <v>593648</v>
-      </c>
-      <c r="M58" s="13">
-        <v>654338</v>
-      </c>
-      <c r="N58" s="13">
         <v>772760</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -2388,169 +1698,104 @@
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="9"/>
-      <c r="M59" s="9"/>
-      <c r="N59" s="9"/>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J60" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K60" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L60" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="M60" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N60" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I61" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J61" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K61" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L61" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M61" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="N61" s="13">
+        <v>18</v>
+      </c>
+      <c r="I61" s="13">
         <v>1071429</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I62" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J62" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K62" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L62" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="M62" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N62" s="11">
+        <v>18</v>
+      </c>
+      <c r="I62" s="11">
         <v>719727</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I63" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J63" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K63" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L63" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M63" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="N63" s="13">
+        <v>18</v>
+      </c>
+      <c r="I63" s="13">
         <v>711310</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2559,13 +1804,8 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2574,13 +1814,8 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2589,15 +1824,10 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-    </row>
-    <row r="67" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -2616,23 +1846,8 @@
       <c r="I67" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J67" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K67" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L67" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M67" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N67" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2641,15 +1856,10 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -2658,208 +1868,128 @@
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="9"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
-        <v>-57217</v>
+        <v>-63477</v>
       </c>
       <c r="F70" s="11">
-        <v>-113856</v>
+        <v>-103306</v>
       </c>
       <c r="G70" s="11">
-        <v>-138858</v>
+        <v>-116596</v>
       </c>
       <c r="H70" s="11">
-        <v>-44462</v>
+        <v>-131656</v>
       </c>
       <c r="I70" s="11">
-        <v>-135160</v>
-      </c>
-      <c r="J70" s="11">
-        <v>-63477</v>
-      </c>
-      <c r="K70" s="11">
-        <v>-103306</v>
-      </c>
-      <c r="L70" s="11">
-        <v>-116596</v>
-      </c>
-      <c r="M70" s="11">
-        <v>-131656</v>
-      </c>
-      <c r="N70" s="11">
-        <v>-237481</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-221255</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D71" s="13"/>
       <c r="E71" s="13">
-        <v>-126349</v>
+        <v>-440341</v>
       </c>
       <c r="F71" s="13">
-        <v>-244901</v>
+        <v>-421513</v>
       </c>
       <c r="G71" s="13">
-        <v>-301339</v>
+        <v>-271505</v>
       </c>
       <c r="H71" s="13">
-        <v>-297986</v>
+        <v>-472950</v>
       </c>
       <c r="I71" s="13">
-        <v>-370160</v>
-      </c>
-      <c r="J71" s="13">
-        <v>-440341</v>
-      </c>
-      <c r="K71" s="13">
-        <v>-421513</v>
-      </c>
-      <c r="L71" s="13">
-        <v>-271505</v>
-      </c>
-      <c r="M71" s="13">
-        <v>-472950</v>
-      </c>
-      <c r="N71" s="13">
-        <v>-391785</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-337910</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
-        <v>-1422520</v>
+        <v>-5571588</v>
       </c>
       <c r="F72" s="11">
-        <v>-1750770</v>
+        <v>-3722076</v>
       </c>
       <c r="G72" s="11">
-        <v>-2575717</v>
+        <v>-3416116</v>
       </c>
       <c r="H72" s="11">
-        <v>-2945314</v>
+        <v>-5041057</v>
       </c>
       <c r="I72" s="11">
-        <v>-3315860</v>
-      </c>
-      <c r="J72" s="11">
-        <v>-5571588</v>
-      </c>
-      <c r="K72" s="11">
-        <v>-3722076</v>
-      </c>
-      <c r="L72" s="11">
-        <v>-3416116</v>
-      </c>
-      <c r="M72" s="11">
-        <v>-5041057</v>
-      </c>
-      <c r="N72" s="11">
-        <v>-5952290</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-6490601</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="13">
-        <v>-2376451</v>
+        <v>-6985026</v>
       </c>
       <c r="F73" s="13">
-        <v>-3152949</v>
+        <v>-7771513</v>
       </c>
       <c r="G73" s="13">
-        <v>-4488140</v>
+        <v>-7901292</v>
       </c>
       <c r="H73" s="13">
-        <v>-6311755</v>
+        <v>-9086290</v>
       </c>
       <c r="I73" s="13">
-        <v>-6227704</v>
-      </c>
-      <c r="J73" s="13">
-        <v>-6985026</v>
-      </c>
-      <c r="K73" s="13">
-        <v>-7771513</v>
-      </c>
-      <c r="L73" s="13">
-        <v>-7901292</v>
-      </c>
-      <c r="M73" s="13">
-        <v>-9086290</v>
-      </c>
-      <c r="N73" s="13">
-        <v>-10126731</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-9668446</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15">
-        <v>-3982537</v>
+        <v>-13060432</v>
       </c>
       <c r="F74" s="15">
-        <v>-5262476</v>
+        <v>-12018408</v>
       </c>
       <c r="G74" s="15">
-        <v>-7504054</v>
+        <v>-11705509</v>
       </c>
       <c r="H74" s="15">
-        <v>-9599517</v>
+        <v>-14731953</v>
       </c>
       <c r="I74" s="15">
-        <v>-10048884</v>
-      </c>
-      <c r="J74" s="15">
-        <v>-13060432</v>
-      </c>
-      <c r="K74" s="15">
-        <v>-12018408</v>
-      </c>
-      <c r="L74" s="15">
-        <v>-11705509</v>
-      </c>
-      <c r="M74" s="15">
-        <v>-14731953</v>
-      </c>
-      <c r="N74" s="15">
-        <v>-16708287</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-16718212</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -2868,18 +1998,13 @@
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
-      <c r="K75" s="9"/>
-      <c r="L75" s="9"/>
-      <c r="M75" s="9"/>
-      <c r="N75" s="9"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
@@ -2894,31 +2019,16 @@
       <c r="H76" s="11">
         <v>0</v>
       </c>
-      <c r="I76" s="11">
-        <v>0</v>
-      </c>
-      <c r="J76" s="11">
-        <v>0</v>
-      </c>
-      <c r="K76" s="11">
-        <v>0</v>
-      </c>
-      <c r="L76" s="11">
-        <v>0</v>
-      </c>
-      <c r="M76" s="11">
-        <v>0</v>
-      </c>
-      <c r="N76" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I76" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="13">
@@ -2934,30 +2044,15 @@
         <v>0</v>
       </c>
       <c r="I77" s="13">
-        <v>0</v>
-      </c>
-      <c r="J77" s="13">
-        <v>0</v>
-      </c>
-      <c r="K77" s="13">
-        <v>0</v>
-      </c>
-      <c r="L77" s="13">
-        <v>0</v>
-      </c>
-      <c r="M77" s="13">
-        <v>0</v>
-      </c>
-      <c r="N77" s="13">
         <v>-9</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
@@ -2973,30 +2068,15 @@
         <v>0</v>
       </c>
       <c r="I78" s="11">
-        <v>0</v>
-      </c>
-      <c r="J78" s="11">
-        <v>0</v>
-      </c>
-      <c r="K78" s="11">
-        <v>0</v>
-      </c>
-      <c r="L78" s="11">
-        <v>0</v>
-      </c>
-      <c r="M78" s="11">
-        <v>0</v>
-      </c>
-      <c r="N78" s="11">
-        <v>-74027</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-77652</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D79" s="13"/>
       <c r="E79" s="13">
@@ -3012,27 +2092,12 @@
         <v>0</v>
       </c>
       <c r="I79" s="13">
-        <v>0</v>
-      </c>
-      <c r="J79" s="13">
-        <v>0</v>
-      </c>
-      <c r="K79" s="13">
-        <v>0</v>
-      </c>
-      <c r="L79" s="13">
-        <v>0</v>
-      </c>
-      <c r="M79" s="13">
-        <v>0</v>
-      </c>
-      <c r="N79" s="13">
-        <v>-114224</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-111499</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C80" s="15"/>
       <c r="D80" s="15"/>
@@ -3049,27 +2114,12 @@
         <v>0</v>
       </c>
       <c r="I80" s="15">
-        <v>0</v>
-      </c>
-      <c r="J80" s="15">
-        <v>0</v>
-      </c>
-      <c r="K80" s="15">
-        <v>0</v>
-      </c>
-      <c r="L80" s="15">
-        <v>0</v>
-      </c>
-      <c r="M80" s="15">
-        <v>0</v>
-      </c>
-      <c r="N80" s="15">
-        <v>-188260</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-189160</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C81" s="17"/>
       <c r="D81" s="17"/>
@@ -3078,15 +2128,10 @@
       <c r="G81" s="17"/>
       <c r="H81" s="17"/>
       <c r="I81" s="17"/>
-      <c r="J81" s="17"/>
-      <c r="K81" s="17"/>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
@@ -3105,67 +2150,37 @@
       <c r="I82" s="15">
         <v>0</v>
       </c>
-      <c r="J82" s="15">
-        <v>0</v>
-      </c>
-      <c r="K82" s="15">
-        <v>0</v>
-      </c>
-      <c r="L82" s="15">
-        <v>0</v>
-      </c>
-      <c r="M82" s="15">
-        <v>0</v>
-      </c>
-      <c r="N82" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D83" s="19"/>
-      <c r="E83" s="19">
-        <v>0</v>
-      </c>
-      <c r="F83" s="19">
-        <v>0</v>
-      </c>
-      <c r="G83" s="19">
-        <v>0</v>
+      <c r="E83" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F83" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G83" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="H83" s="19" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I83" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="J83" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="K83" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="L83" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M83" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="N83" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D84" s="15"/>
       <c r="E84" s="15">
@@ -3177,66 +2192,36 @@
       <c r="G84" s="15">
         <v>0</v>
       </c>
-      <c r="H84" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I84" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J84" s="15">
-        <v>0</v>
-      </c>
-      <c r="K84" s="15">
-        <v>0</v>
-      </c>
-      <c r="L84" s="15">
-        <v>0</v>
-      </c>
-      <c r="M84" s="15">
-        <v>0</v>
-      </c>
-      <c r="N84" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="H84" s="15">
+        <v>0</v>
+      </c>
+      <c r="I84" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C85" s="19"/>
       <c r="D85" s="19"/>
       <c r="E85" s="19">
-        <v>-3982537</v>
+        <v>-13060432</v>
       </c>
       <c r="F85" s="19">
-        <v>-5262476</v>
+        <v>-12018408</v>
       </c>
       <c r="G85" s="19">
-        <v>-7504054</v>
+        <v>-11705509</v>
       </c>
       <c r="H85" s="19">
-        <v>-9599517</v>
+        <v>-14731953</v>
       </c>
       <c r="I85" s="19">
-        <v>-10048884</v>
-      </c>
-      <c r="J85" s="19">
-        <v>-13060432</v>
-      </c>
-      <c r="K85" s="19">
-        <v>-12018408</v>
-      </c>
-      <c r="L85" s="19">
-        <v>-11705509</v>
-      </c>
-      <c r="M85" s="19">
-        <v>-14731953</v>
-      </c>
-      <c r="N85" s="19">
-        <v>-16896547</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-16907372</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3245,13 +2230,8 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
-      <c r="N86" s="1"/>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3260,13 +2240,8 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="N87" s="1"/>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3275,15 +2250,10 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
-    </row>
-    <row r="89" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -3302,23 +2272,8 @@
       <c r="I89" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J89" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K89" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L89" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M89" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N89" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3327,15 +2282,10 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="1"/>
-      <c r="M90" s="1"/>
-      <c r="N90" s="1"/>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
@@ -3344,208 +2294,128 @@
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
-      <c r="J91" s="9"/>
-      <c r="K91" s="9"/>
-      <c r="L91" s="9"/>
-      <c r="M91" s="9"/>
-      <c r="N91" s="9"/>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11">
-        <v>28538</v>
+        <v>59494</v>
       </c>
       <c r="F92" s="11">
-        <v>23209</v>
+        <v>28855</v>
       </c>
       <c r="G92" s="11">
-        <v>-31319</v>
+        <v>-7463</v>
       </c>
       <c r="H92" s="11">
-        <v>70086</v>
+        <v>-13850</v>
       </c>
       <c r="I92" s="11">
-        <v>-32907</v>
-      </c>
-      <c r="J92" s="11">
-        <v>59494</v>
-      </c>
-      <c r="K92" s="11">
-        <v>28855</v>
-      </c>
-      <c r="L92" s="11">
-        <v>-7463</v>
-      </c>
-      <c r="M92" s="11">
-        <v>-13850</v>
-      </c>
-      <c r="N92" s="11">
-        <v>-77081</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-60855</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D93" s="13"/>
       <c r="E93" s="13">
-        <v>69826</v>
+        <v>-465</v>
       </c>
       <c r="F93" s="13">
-        <v>241057</v>
+        <v>-51408</v>
       </c>
       <c r="G93" s="13">
-        <v>158384</v>
+        <v>172250</v>
       </c>
       <c r="H93" s="13">
-        <v>123664</v>
+        <v>-11675</v>
       </c>
       <c r="I93" s="13">
-        <v>122971</v>
-      </c>
-      <c r="J93" s="13">
-        <v>-465</v>
-      </c>
-      <c r="K93" s="13">
-        <v>-51408</v>
-      </c>
-      <c r="L93" s="13">
-        <v>172250</v>
-      </c>
-      <c r="M93" s="13">
-        <v>-11675</v>
-      </c>
-      <c r="N93" s="13">
-        <v>215917</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
+        <v>269792</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11">
-        <v>214663</v>
+        <v>-804086</v>
       </c>
       <c r="F94" s="11">
-        <v>802577</v>
+        <v>47769</v>
       </c>
       <c r="G94" s="11">
-        <v>208243</v>
+        <v>507596</v>
       </c>
       <c r="H94" s="11">
-        <v>792518</v>
+        <v>3024</v>
       </c>
       <c r="I94" s="11">
-        <v>991307</v>
-      </c>
-      <c r="J94" s="11">
-        <v>-804086</v>
-      </c>
-      <c r="K94" s="11">
-        <v>47769</v>
-      </c>
-      <c r="L94" s="11">
-        <v>507596</v>
-      </c>
-      <c r="M94" s="11">
-        <v>3024</v>
-      </c>
-      <c r="N94" s="11">
-        <v>-118029</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-656340</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D95" s="13"/>
       <c r="E95" s="13">
-        <v>623251</v>
+        <v>740920</v>
       </c>
       <c r="F95" s="13">
-        <v>1627197</v>
+        <v>505132</v>
       </c>
       <c r="G95" s="13">
-        <v>1030402</v>
+        <v>244822</v>
       </c>
       <c r="H95" s="13">
-        <v>1314202</v>
+        <v>-505649</v>
       </c>
       <c r="I95" s="13">
-        <v>407396</v>
-      </c>
-      <c r="J95" s="13">
-        <v>740920</v>
-      </c>
-      <c r="K95" s="13">
-        <v>505132</v>
-      </c>
-      <c r="L95" s="13">
-        <v>244822</v>
-      </c>
-      <c r="M95" s="13">
-        <v>-505649</v>
-      </c>
-      <c r="N95" s="13">
-        <v>1696033</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
+        <v>2154318</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C96" s="15"/>
       <c r="D96" s="15"/>
       <c r="E96" s="15">
-        <v>936278</v>
+        <v>-4137</v>
       </c>
       <c r="F96" s="15">
-        <v>2694040</v>
+        <v>530348</v>
       </c>
       <c r="G96" s="15">
-        <v>1365710</v>
+        <v>917205</v>
       </c>
       <c r="H96" s="15">
-        <v>2300470</v>
+        <v>-528150</v>
       </c>
       <c r="I96" s="15">
-        <v>1488767</v>
-      </c>
-      <c r="J96" s="15">
-        <v>-4137</v>
-      </c>
-      <c r="K96" s="15">
-        <v>530348</v>
-      </c>
-      <c r="L96" s="15">
-        <v>917205</v>
-      </c>
-      <c r="M96" s="15">
-        <v>-528150</v>
-      </c>
-      <c r="N96" s="15">
-        <v>1716840</v>
-      </c>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
+        <v>1706915</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
@@ -3554,18 +2424,13 @@
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
-      <c r="J97" s="9"/>
-      <c r="K97" s="9"/>
-      <c r="L97" s="9"/>
-      <c r="M97" s="9"/>
-      <c r="N97" s="9"/>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11">
@@ -3580,31 +2445,16 @@
       <c r="H98" s="11">
         <v>0</v>
       </c>
-      <c r="I98" s="11">
-        <v>0</v>
-      </c>
-      <c r="J98" s="11">
-        <v>0</v>
-      </c>
-      <c r="K98" s="11">
-        <v>0</v>
-      </c>
-      <c r="L98" s="11">
-        <v>0</v>
-      </c>
-      <c r="M98" s="11">
-        <v>0</v>
-      </c>
-      <c r="N98" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I98" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D99" s="13"/>
       <c r="E99" s="13">
@@ -3620,30 +2470,15 @@
         <v>0</v>
       </c>
       <c r="I99" s="13">
-        <v>0</v>
-      </c>
-      <c r="J99" s="13">
-        <v>0</v>
-      </c>
-      <c r="K99" s="13">
-        <v>0</v>
-      </c>
-      <c r="L99" s="13">
-        <v>0</v>
-      </c>
-      <c r="M99" s="13">
-        <v>0</v>
-      </c>
-      <c r="N99" s="13">
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
@@ -3659,30 +2494,15 @@
         <v>0</v>
       </c>
       <c r="I100" s="11">
-        <v>0</v>
-      </c>
-      <c r="J100" s="11">
-        <v>0</v>
-      </c>
-      <c r="K100" s="11">
-        <v>0</v>
-      </c>
-      <c r="L100" s="11">
-        <v>0</v>
-      </c>
-      <c r="M100" s="11">
-        <v>0</v>
-      </c>
-      <c r="N100" s="11">
-        <v>2752</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-873</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D101" s="13"/>
       <c r="E101" s="13">
@@ -3698,27 +2518,12 @@
         <v>0</v>
       </c>
       <c r="I101" s="13">
-        <v>0</v>
-      </c>
-      <c r="J101" s="13">
-        <v>0</v>
-      </c>
-      <c r="K101" s="13">
-        <v>0</v>
-      </c>
-      <c r="L101" s="13">
-        <v>0</v>
-      </c>
-      <c r="M101" s="13">
-        <v>0</v>
-      </c>
-      <c r="N101" s="13">
-        <v>5929</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
+        <v>8654</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C102" s="15"/>
       <c r="D102" s="15"/>
@@ -3735,27 +2540,12 @@
         <v>0</v>
       </c>
       <c r="I102" s="15">
-        <v>0</v>
-      </c>
-      <c r="J102" s="15">
-        <v>0</v>
-      </c>
-      <c r="K102" s="15">
-        <v>0</v>
-      </c>
-      <c r="L102" s="15">
-        <v>0</v>
-      </c>
-      <c r="M102" s="15">
-        <v>0</v>
-      </c>
-      <c r="N102" s="15">
-        <v>8687</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
+        <v>7787</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C103" s="17"/>
       <c r="D103" s="17"/>
@@ -3764,15 +2554,10 @@
       <c r="G103" s="17"/>
       <c r="H103" s="17"/>
       <c r="I103" s="17"/>
-      <c r="J103" s="17"/>
-      <c r="K103" s="17"/>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C104" s="15"/>
       <c r="D104" s="15"/>
@@ -3791,57 +2576,27 @@
       <c r="I104" s="15">
         <v>0</v>
       </c>
-      <c r="J104" s="15">
-        <v>0</v>
-      </c>
-      <c r="K104" s="15">
-        <v>0</v>
-      </c>
-      <c r="L104" s="15">
-        <v>0</v>
-      </c>
-      <c r="M104" s="15">
-        <v>0</v>
-      </c>
-      <c r="N104" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C105" s="19"/>
       <c r="D105" s="19"/>
       <c r="E105" s="19">
-        <v>936278</v>
+        <v>-4137</v>
       </c>
       <c r="F105" s="19">
-        <v>2694040</v>
+        <v>530348</v>
       </c>
       <c r="G105" s="19">
-        <v>1365710</v>
+        <v>917205</v>
       </c>
       <c r="H105" s="19">
-        <v>2300470</v>
+        <v>-528150</v>
       </c>
       <c r="I105" s="19">
-        <v>1488767</v>
-      </c>
-      <c r="J105" s="19">
-        <v>-4137</v>
-      </c>
-      <c r="K105" s="19">
-        <v>530348</v>
-      </c>
-      <c r="L105" s="19">
-        <v>917205</v>
-      </c>
-      <c r="M105" s="19">
-        <v>-528150</v>
-      </c>
-      <c r="N105" s="19">
-        <v>1725527</v>
+        <v>1714702</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/lastic/pekerman/product/quarterly_seprated.xlsx
+++ b/database/industries/lastic/pekerman/product/quarterly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\pekerman\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC72F859-7951-40E7-AD2C-845C1F6B6045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="5550"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="49">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>پکرمان-گروه‌ صنعتی‌ بارز</t>
@@ -36,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -51,6 +49,9 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>مقدار فروش داخلی</t>
   </si>
   <si>
@@ -60,6 +61,9 @@
     <t>کیلوگرم</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>تیوب</t>
   </si>
   <si>
@@ -73,9 +77,6 @@
   </si>
   <si>
     <t>مقدار فروش خارجی</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>جمع فروش خارجی</t>
@@ -171,7 +172,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -364,7 +365,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -376,7 +377,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -423,6 +424,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -458,6 +476,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -609,17 +644,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -629,7 +664,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -641,7 +676,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -653,7 +688,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -663,7 +698,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -675,7 +710,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -687,7 +722,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -697,7 +732,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -719,7 +754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -729,7 +764,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -741,7 +776,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -750,118 +785,118 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>423499</v>
-      </c>
-      <c r="F11" s="11">
         <v>452478</v>
       </c>
+      <c r="F11" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G11" s="11">
-        <v>342299</v>
+        <v>284127</v>
       </c>
       <c r="H11" s="11">
-        <v>284127</v>
+        <v>341622</v>
       </c>
       <c r="I11" s="11">
-        <v>341622</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>366270</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>774368</v>
-      </c>
-      <c r="F12" s="13">
         <v>642542</v>
       </c>
+      <c r="F12" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G12" s="13">
-        <v>652860</v>
+        <v>629726</v>
       </c>
       <c r="H12" s="13">
-        <v>629726</v>
+        <v>737586</v>
       </c>
       <c r="I12" s="13">
-        <v>737586</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>682128</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>8686935</v>
-      </c>
-      <c r="F13" s="11">
         <v>6703593</v>
       </c>
+      <c r="F13" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G13" s="11">
-        <v>6281522</v>
+        <v>7900221</v>
       </c>
       <c r="H13" s="11">
-        <v>7900221</v>
+        <v>7941926</v>
       </c>
       <c r="I13" s="11">
-        <v>7941926</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6837497</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>14246224</v>
-      </c>
-      <c r="F14" s="13">
         <v>14893295</v>
       </c>
+      <c r="F14" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G14" s="13">
-        <v>13722131</v>
+        <v>13113469</v>
       </c>
       <c r="H14" s="13">
-        <v>13113469</v>
+        <v>15299404</v>
       </c>
       <c r="I14" s="13">
-        <v>15299404</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14085403</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15">
-        <v>24131026</v>
+        <v>22691908</v>
       </c>
       <c r="F15" s="15">
-        <v>22691908</v>
+        <v>0</v>
       </c>
       <c r="G15" s="15">
-        <v>20998812</v>
+        <v>21927543</v>
       </c>
       <c r="H15" s="15">
-        <v>21927543</v>
+        <v>24320538</v>
       </c>
       <c r="I15" s="15">
-        <v>24320538</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>21971298</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -871,7 +906,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>11</v>
       </c>
@@ -888,16 +923,16 @@
       <c r="G17" s="11">
         <v>0</v>
       </c>
-      <c r="H17" s="11">
-        <v>0</v>
+      <c r="H17" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>12</v>
@@ -906,22 +941,22 @@
       <c r="E18" s="13">
         <v>0</v>
       </c>
-      <c r="F18" s="13">
-        <v>0</v>
+      <c r="F18" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="G18" s="13">
         <v>0</v>
       </c>
       <c r="H18" s="13">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I18" s="13">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>12</v>
@@ -930,22 +965,22 @@
       <c r="E19" s="11">
         <v>0</v>
       </c>
-      <c r="F19" s="11">
-        <v>0</v>
+      <c r="F19" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="G19" s="11">
         <v>0</v>
       </c>
       <c r="H19" s="11">
-        <v>0</v>
+        <v>106678</v>
       </c>
       <c r="I19" s="11">
-        <v>106678</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>182468</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>12</v>
@@ -954,20 +989,20 @@
       <c r="E20" s="13">
         <v>0</v>
       </c>
-      <c r="F20" s="13">
-        <v>0</v>
+      <c r="F20" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="G20" s="13">
         <v>0</v>
       </c>
       <c r="H20" s="13">
-        <v>0</v>
+        <v>168918</v>
       </c>
       <c r="I20" s="13">
-        <v>168918</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>150880</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>19</v>
       </c>
@@ -983,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="H21" s="15">
-        <v>0</v>
+        <v>275610</v>
       </c>
       <c r="I21" s="15">
-        <v>275610</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>334721</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>20</v>
       </c>
@@ -1001,7 +1036,7 @@
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>21</v>
       </c>
@@ -1023,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
         <v>22</v>
       </c>
@@ -1032,22 +1067,22 @@
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="19" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>24</v>
       </c>
@@ -1056,8 +1091,8 @@
       <c r="E25" s="15">
         <v>0</v>
       </c>
-      <c r="F25" s="15">
-        <v>0</v>
+      <c r="F25" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="G25" s="15">
         <v>0</v>
@@ -1069,29 +1104,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19">
-        <v>24131026</v>
+        <v>22691908</v>
       </c>
       <c r="F26" s="19">
-        <v>22691908</v>
+        <v>0</v>
       </c>
       <c r="G26" s="19">
-        <v>20998812</v>
+        <v>21927543</v>
       </c>
       <c r="H26" s="19">
-        <v>21927543</v>
+        <v>24596148</v>
       </c>
       <c r="I26" s="19">
-        <v>24596148</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22306019</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1101,7 +1136,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1111,7 +1146,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1121,7 +1156,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>26</v>
       </c>
@@ -1143,7 +1178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1153,7 +1188,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>27</v>
       </c>
@@ -1165,7 +1200,7 @@
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>11</v>
       </c>
@@ -1174,116 +1209,116 @@
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
-        <v>122971</v>
-      </c>
-      <c r="F33" s="11">
         <v>132163</v>
       </c>
+      <c r="F33" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G33" s="11">
-        <v>109133</v>
+        <v>117806</v>
       </c>
       <c r="H33" s="11">
-        <v>117806</v>
+        <v>160400</v>
       </c>
       <c r="I33" s="11">
-        <v>160400</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>212038</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
-        <v>439876</v>
-      </c>
-      <c r="F34" s="13">
         <v>370104</v>
       </c>
+      <c r="F34" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G34" s="13">
-        <v>443755</v>
+        <v>461275</v>
       </c>
       <c r="H34" s="13">
-        <v>461275</v>
+        <v>607702</v>
       </c>
       <c r="I34" s="13">
-        <v>607702</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>747710</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11">
-        <v>4767502</v>
-      </c>
-      <c r="F35" s="11">
         <v>3769844</v>
       </c>
+      <c r="F35" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G35" s="11">
-        <v>3923712</v>
+        <v>5044081</v>
       </c>
       <c r="H35" s="11">
-        <v>5044081</v>
+        <v>5834261</v>
       </c>
       <c r="I35" s="11">
-        <v>5834261</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5559804</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>7725946</v>
-      </c>
-      <c r="F36" s="13">
         <v>8276645</v>
       </c>
+      <c r="F36" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G36" s="13">
-        <v>8146114</v>
+        <v>8580641</v>
       </c>
       <c r="H36" s="13">
-        <v>8580641</v>
+        <v>11822764</v>
       </c>
       <c r="I36" s="13">
-        <v>11822764</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11339984</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15">
-        <v>13056295</v>
+        <v>12548756</v>
       </c>
       <c r="F37" s="15">
-        <v>12548756</v>
+        <v>0</v>
       </c>
       <c r="G37" s="15">
-        <v>12622714</v>
+        <v>14203803</v>
       </c>
       <c r="H37" s="15">
-        <v>14203803</v>
+        <v>18425127</v>
       </c>
       <c r="I37" s="15">
-        <v>18425127</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17859536</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>29</v>
       </c>
@@ -1295,7 +1330,7 @@
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>11</v>
       </c>
@@ -1312,16 +1347,16 @@
       <c r="G39" s="11">
         <v>0</v>
       </c>
-      <c r="H39" s="11">
-        <v>0</v>
+      <c r="H39" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>28</v>
@@ -1330,22 +1365,22 @@
       <c r="E40" s="13">
         <v>0</v>
       </c>
-      <c r="F40" s="13">
-        <v>0</v>
+      <c r="F40" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="G40" s="13">
         <v>0</v>
       </c>
       <c r="H40" s="13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I40" s="13">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="10" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="10" t="s">
-        <v>14</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>28</v>
@@ -1354,22 +1389,22 @@
       <c r="E41" s="11">
         <v>0</v>
       </c>
-      <c r="F41" s="11">
-        <v>0</v>
+      <c r="F41" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="G41" s="11">
         <v>0</v>
       </c>
       <c r="H41" s="11">
-        <v>0</v>
+        <v>76779</v>
       </c>
       <c r="I41" s="11">
-        <v>76779</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>141076</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>28</v>
@@ -1378,20 +1413,20 @@
       <c r="E42" s="13">
         <v>0</v>
       </c>
-      <c r="F42" s="13">
-        <v>0</v>
+      <c r="F42" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="G42" s="13">
         <v>0</v>
       </c>
       <c r="H42" s="13">
-        <v>0</v>
+        <v>120153</v>
       </c>
       <c r="I42" s="13">
-        <v>120153</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>113951</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>19</v>
       </c>
@@ -1407,13 +1442,13 @@
         <v>0</v>
       </c>
       <c r="H43" s="15">
-        <v>0</v>
+        <v>196947</v>
       </c>
       <c r="I43" s="15">
-        <v>196947</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>256028</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="16" t="s">
         <v>30</v>
       </c>
@@ -1425,7 +1460,7 @@
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>21</v>
       </c>
@@ -1447,7 +1482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="18" t="s">
         <v>22</v>
       </c>
@@ -1456,22 +1491,22 @@
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="19" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I46" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>24</v>
       </c>
@@ -1482,8 +1517,8 @@
       <c r="E47" s="15">
         <v>0</v>
       </c>
-      <c r="F47" s="15">
-        <v>0</v>
+      <c r="F47" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="G47" s="15">
         <v>0</v>
@@ -1495,29 +1530,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
       <c r="E48" s="19">
-        <v>13056295</v>
+        <v>12548756</v>
       </c>
       <c r="F48" s="19">
-        <v>12548756</v>
+        <v>0</v>
       </c>
       <c r="G48" s="19">
-        <v>12622714</v>
+        <v>14203803</v>
       </c>
       <c r="H48" s="19">
-        <v>14203803</v>
+        <v>18622074</v>
       </c>
       <c r="I48" s="19">
-        <v>18622074</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18115564</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1527,7 +1562,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1537,7 +1572,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1547,7 +1582,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>31</v>
       </c>
@@ -1569,7 +1604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1579,7 +1614,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>32</v>
       </c>
@@ -1591,7 +1626,7 @@
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>11</v>
       </c>
@@ -1600,94 +1635,94 @@
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
-        <v>290369</v>
+        <v>292083</v>
       </c>
       <c r="F55" s="11">
-        <v>292083</v>
+        <v>318824</v>
       </c>
       <c r="G55" s="11">
-        <v>318824</v>
+        <v>414624</v>
       </c>
       <c r="H55" s="11">
-        <v>414624</v>
+        <v>469525</v>
       </c>
       <c r="I55" s="11">
-        <v>469525</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>578912</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>568045</v>
+        <v>576001</v>
       </c>
       <c r="F56" s="13">
-        <v>576001</v>
+        <v>679709</v>
       </c>
       <c r="G56" s="13">
-        <v>679709</v>
+        <v>732501</v>
       </c>
       <c r="H56" s="13">
-        <v>732501</v>
+        <v>823907</v>
       </c>
       <c r="I56" s="13">
-        <v>823907</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1096143</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
-        <v>548813</v>
+        <v>562362</v>
       </c>
       <c r="F57" s="11">
-        <v>562362</v>
+        <v>624644</v>
       </c>
       <c r="G57" s="11">
-        <v>624644</v>
+        <v>638473</v>
       </c>
       <c r="H57" s="11">
-        <v>638473</v>
+        <v>734615</v>
       </c>
       <c r="I57" s="11">
-        <v>734615</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>813134</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
-        <v>542315</v>
+        <v>555730</v>
       </c>
       <c r="F58" s="13">
-        <v>555730</v>
+        <v>593648</v>
       </c>
       <c r="G58" s="13">
-        <v>593648</v>
+        <v>654338</v>
       </c>
       <c r="H58" s="13">
-        <v>654338</v>
+        <v>772760</v>
       </c>
       <c r="I58" s="13">
-        <v>772760</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>805088</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>34</v>
       </c>
@@ -1699,7 +1734,7 @@
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>11</v>
       </c>
@@ -1708,94 +1743,94 @@
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H61" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="H61" s="13">
+        <v>1071429</v>
       </c>
       <c r="I61" s="13">
-        <v>1071429</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+        <v>729060</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="H62" s="11">
+        <v>719727</v>
       </c>
       <c r="I62" s="11">
-        <v>719727</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>773155</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H63" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="H63" s="13">
+        <v>711310</v>
       </c>
       <c r="I63" s="13">
-        <v>711310</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>755243</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1805,7 +1840,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1815,7 +1850,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1825,7 +1860,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
         <v>35</v>
       </c>
@@ -1847,7 +1882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1857,7 +1892,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>36</v>
       </c>
@@ -1869,7 +1904,7 @@
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>11</v>
       </c>
@@ -1878,116 +1913,116 @@
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
-        <v>-63477</v>
+        <v>-103306</v>
       </c>
       <c r="F70" s="11">
-        <v>-103306</v>
+        <v>-116596</v>
       </c>
       <c r="G70" s="11">
-        <v>-116596</v>
+        <v>-131656</v>
       </c>
       <c r="H70" s="11">
-        <v>-131656</v>
+        <v>-221255</v>
       </c>
       <c r="I70" s="11">
-        <v>-221255</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-64891</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D71" s="13"/>
       <c r="E71" s="13">
-        <v>-440341</v>
+        <v>-421513</v>
       </c>
       <c r="F71" s="13">
-        <v>-421513</v>
+        <v>-271505</v>
       </c>
       <c r="G71" s="13">
-        <v>-271505</v>
+        <v>-472950</v>
       </c>
       <c r="H71" s="13">
-        <v>-472950</v>
+        <v>-337910</v>
       </c>
       <c r="I71" s="13">
-        <v>-337910</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-769467</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
-        <v>-5571588</v>
+        <v>-3722076</v>
       </c>
       <c r="F72" s="11">
-        <v>-3722076</v>
+        <v>-3416116</v>
       </c>
       <c r="G72" s="11">
-        <v>-3416116</v>
+        <v>-5041057</v>
       </c>
       <c r="H72" s="11">
-        <v>-5041057</v>
+        <v>-6490601</v>
       </c>
       <c r="I72" s="11">
-        <v>-6490601</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-4382235</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="13">
-        <v>-6985026</v>
+        <v>-7771513</v>
       </c>
       <c r="F73" s="13">
-        <v>-7771513</v>
+        <v>-7901292</v>
       </c>
       <c r="G73" s="13">
-        <v>-7901292</v>
+        <v>-9086290</v>
       </c>
       <c r="H73" s="13">
-        <v>-9086290</v>
+        <v>-9668446</v>
       </c>
       <c r="I73" s="13">
-        <v>-9668446</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-8718372</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15">
-        <v>-13060432</v>
+        <v>-12018408</v>
       </c>
       <c r="F74" s="15">
-        <v>-12018408</v>
+        <v>-11705509</v>
       </c>
       <c r="G74" s="15">
-        <v>-11705509</v>
+        <v>-14731953</v>
       </c>
       <c r="H74" s="15">
-        <v>-14731953</v>
+        <v>-16718212</v>
       </c>
       <c r="I74" s="15">
-        <v>-16718212</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-13934965</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>38</v>
       </c>
@@ -1999,7 +2034,7 @@
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>11</v>
       </c>
@@ -2016,16 +2051,16 @@
       <c r="G76" s="11">
         <v>0</v>
       </c>
-      <c r="H76" s="11">
-        <v>0</v>
+      <c r="H76" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C77" s="13" t="s">
         <v>28</v>
@@ -2041,15 +2076,15 @@
         <v>0</v>
       </c>
       <c r="H77" s="13">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="I77" s="13">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1061</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>28</v>
@@ -2065,15 +2100,15 @@
         <v>0</v>
       </c>
       <c r="H78" s="11">
-        <v>0</v>
+        <v>-77652</v>
       </c>
       <c r="I78" s="11">
-        <v>-77652</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-125237</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>28</v>
@@ -2089,13 +2124,13 @@
         <v>0</v>
       </c>
       <c r="H79" s="13">
-        <v>0</v>
+        <v>-111499</v>
       </c>
       <c r="I79" s="13">
-        <v>-111499</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-95235</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="14" t="s">
         <v>39</v>
       </c>
@@ -2111,13 +2146,13 @@
         <v>0</v>
       </c>
       <c r="H80" s="15">
-        <v>0</v>
+        <v>-189160</v>
       </c>
       <c r="I80" s="15">
-        <v>-189160</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-221533</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="16" t="s">
         <v>40</v>
       </c>
@@ -2129,7 +2164,7 @@
       <c r="H81" s="17"/>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="14" t="s">
         <v>41</v>
       </c>
@@ -2151,7 +2186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="18" t="s">
         <v>22</v>
       </c>
@@ -2160,22 +2195,22 @@
       </c>
       <c r="D83" s="19"/>
       <c r="E83" s="19" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G83" s="19" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H83" s="19" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I83" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="14" t="s">
         <v>24</v>
       </c>
@@ -2199,29 +2234,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C85" s="19"/>
       <c r="D85" s="19"/>
       <c r="E85" s="19">
-        <v>-13060432</v>
+        <v>-12018408</v>
       </c>
       <c r="F85" s="19">
-        <v>-12018408</v>
+        <v>-11705509</v>
       </c>
       <c r="G85" s="19">
-        <v>-11705509</v>
+        <v>-14731953</v>
       </c>
       <c r="H85" s="19">
-        <v>-14731953</v>
+        <v>-16907372</v>
       </c>
       <c r="I85" s="19">
-        <v>-16907372</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-14156498</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2231,7 +2266,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2241,7 +2276,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2251,7 +2286,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
         <v>42</v>
       </c>
@@ -2273,7 +2308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2283,7 +2318,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>43</v>
       </c>
@@ -2295,7 +2330,7 @@
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>11</v>
       </c>
@@ -2304,116 +2339,116 @@
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11">
-        <v>59494</v>
+        <v>28855</v>
       </c>
       <c r="F92" s="11">
-        <v>28855</v>
+        <v>-7463</v>
       </c>
       <c r="G92" s="11">
-        <v>-7463</v>
+        <v>-13850</v>
       </c>
       <c r="H92" s="11">
-        <v>-13850</v>
+        <v>-60855</v>
       </c>
       <c r="I92" s="11">
-        <v>-60855</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+        <v>147147</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D93" s="13"/>
       <c r="E93" s="13">
-        <v>-465</v>
+        <v>-51408</v>
       </c>
       <c r="F93" s="13">
-        <v>-51408</v>
+        <v>172250</v>
       </c>
       <c r="G93" s="13">
-        <v>172250</v>
+        <v>-11675</v>
       </c>
       <c r="H93" s="13">
-        <v>-11675</v>
+        <v>269792</v>
       </c>
       <c r="I93" s="13">
-        <v>269792</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-21757</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C94" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11">
-        <v>-804086</v>
+        <v>47769</v>
       </c>
       <c r="F94" s="11">
-        <v>47769</v>
+        <v>507596</v>
       </c>
       <c r="G94" s="11">
-        <v>507596</v>
+        <v>3024</v>
       </c>
       <c r="H94" s="11">
-        <v>3024</v>
+        <v>-656340</v>
       </c>
       <c r="I94" s="11">
-        <v>-656340</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1177569</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C95" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D95" s="13"/>
       <c r="E95" s="13">
-        <v>740920</v>
+        <v>505132</v>
       </c>
       <c r="F95" s="13">
-        <v>505132</v>
+        <v>244822</v>
       </c>
       <c r="G95" s="13">
-        <v>244822</v>
+        <v>-505649</v>
       </c>
       <c r="H95" s="13">
-        <v>-505649</v>
+        <v>2154318</v>
       </c>
       <c r="I95" s="13">
-        <v>2154318</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2621612</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C96" s="15"/>
       <c r="D96" s="15"/>
       <c r="E96" s="15">
-        <v>-4137</v>
+        <v>530348</v>
       </c>
       <c r="F96" s="15">
-        <v>530348</v>
+        <v>917205</v>
       </c>
       <c r="G96" s="15">
-        <v>917205</v>
+        <v>-528150</v>
       </c>
       <c r="H96" s="15">
-        <v>-528150</v>
+        <v>1706915</v>
       </c>
       <c r="I96" s="15">
-        <v>1706915</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3924571</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>45</v>
       </c>
@@ -2425,7 +2460,7 @@
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>11</v>
       </c>
@@ -2442,16 +2477,16 @@
       <c r="G98" s="11">
         <v>0</v>
       </c>
-      <c r="H98" s="11">
-        <v>0</v>
+      <c r="H98" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C99" s="13" t="s">
         <v>28</v>
@@ -2467,15 +2502,15 @@
         <v>0</v>
       </c>
       <c r="H99" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I99" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C100" s="11" t="s">
         <v>28</v>
@@ -2491,15 +2526,15 @@
         <v>0</v>
       </c>
       <c r="H100" s="11">
-        <v>0</v>
+        <v>-873</v>
       </c>
       <c r="I100" s="11">
-        <v>-873</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15839</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C101" s="13" t="s">
         <v>28</v>
@@ -2515,13 +2550,13 @@
         <v>0</v>
       </c>
       <c r="H101" s="13">
-        <v>0</v>
+        <v>8654</v>
       </c>
       <c r="I101" s="13">
-        <v>8654</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18716</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="14" t="s">
         <v>46</v>
       </c>
@@ -2537,13 +2572,13 @@
         <v>0</v>
       </c>
       <c r="H102" s="15">
-        <v>0</v>
+        <v>7787</v>
       </c>
       <c r="I102" s="15">
-        <v>7787</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+        <v>34495</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="16" t="s">
         <v>47</v>
       </c>
@@ -2555,7 +2590,7 @@
       <c r="H103" s="17"/>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="14" t="s">
         <v>48</v>
       </c>
@@ -2577,26 +2612,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C105" s="19"/>
       <c r="D105" s="19"/>
       <c r="E105" s="19">
-        <v>-4137</v>
+        <v>530348</v>
       </c>
       <c r="F105" s="19">
-        <v>530348</v>
+        <v>917205</v>
       </c>
       <c r="G105" s="19">
-        <v>917205</v>
+        <v>-528150</v>
       </c>
       <c r="H105" s="19">
-        <v>-528150</v>
+        <v>1714702</v>
       </c>
       <c r="I105" s="19">
-        <v>1714702</v>
+        <v>3959066</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/lastic/pekerman/product/quarterly_seprated.xlsx
+++ b/database/industries/lastic/pekerman/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\pekerman\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekerman\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC72F859-7951-40E7-AD2C-845C1F6B6045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0D6EE3-CDEB-4F78-872A-C49BC2673708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="54">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار فروش</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -645,16 +660,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I105"/>
+  <dimension ref="B1:N105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -663,8 +678,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -675,8 +695,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -687,8 +712,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -697,8 +727,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -709,8 +744,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -721,8 +761,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -731,8 +776,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -753,8 +803,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -763,10 +828,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -775,128 +845,208 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>439021</v>
+      </c>
+      <c r="F11" s="11">
+        <v>358948</v>
+      </c>
+      <c r="G11" s="11">
+        <v>389127</v>
+      </c>
+      <c r="H11" s="11">
+        <v>348201</v>
+      </c>
+      <c r="I11" s="11">
+        <v>423499</v>
+      </c>
+      <c r="J11" s="11">
         <v>452478</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="11">
+      <c r="K11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="11">
         <v>284127</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>341622</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>366270</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
+        <v>885464</v>
+      </c>
+      <c r="F12" s="13">
+        <v>794658</v>
+      </c>
+      <c r="G12" s="13">
+        <v>732535</v>
+      </c>
+      <c r="H12" s="13">
+        <v>851542</v>
+      </c>
+      <c r="I12" s="13">
+        <v>774368</v>
+      </c>
+      <c r="J12" s="13">
         <v>642542</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="13">
+      <c r="K12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="13">
         <v>629726</v>
       </c>
-      <c r="H12" s="13">
+      <c r="M12" s="13">
         <v>737586</v>
       </c>
-      <c r="I12" s="13">
+      <c r="N12" s="13">
         <v>682128</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>6826923</v>
+      </c>
+      <c r="F13" s="11">
+        <v>6781190</v>
+      </c>
+      <c r="G13" s="11">
+        <v>6714435</v>
+      </c>
+      <c r="H13" s="11">
+        <v>7849877</v>
+      </c>
+      <c r="I13" s="11">
+        <v>8686935</v>
+      </c>
+      <c r="J13" s="11">
         <v>6703593</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="11">
+      <c r="K13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="11">
         <v>7900221</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>7941926</v>
       </c>
-      <c r="I13" s="11">
+      <c r="N13" s="11">
         <v>6837497</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
+        <v>13554492</v>
+      </c>
+      <c r="F14" s="13">
+        <v>13161211</v>
+      </c>
+      <c r="G14" s="13">
+        <v>13741898</v>
+      </c>
+      <c r="H14" s="13">
+        <v>12551615</v>
+      </c>
+      <c r="I14" s="13">
+        <v>14246224</v>
+      </c>
+      <c r="J14" s="13">
         <v>14893295</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="13">
+      <c r="K14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="13">
         <v>13113469</v>
       </c>
-      <c r="H14" s="13">
+      <c r="M14" s="13">
         <v>15299404</v>
       </c>
-      <c r="I14" s="13">
+      <c r="N14" s="13">
         <v>14085403</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15">
+        <v>21705900</v>
+      </c>
+      <c r="F15" s="15">
+        <v>21096007</v>
+      </c>
+      <c r="G15" s="15">
+        <v>21577995</v>
+      </c>
+      <c r="H15" s="15">
+        <v>21601235</v>
+      </c>
+      <c r="I15" s="15">
+        <v>24131026</v>
+      </c>
+      <c r="J15" s="15">
         <v>22691908</v>
       </c>
-      <c r="F15" s="15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="15">
+      <c r="K15" s="15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="15">
         <v>21927543</v>
       </c>
-      <c r="H15" s="15">
+      <c r="M15" s="15">
         <v>24320538</v>
       </c>
-      <c r="I15" s="15">
+      <c r="N15" s="15">
         <v>21971298</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -905,13 +1055,18 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
@@ -923,88 +1078,148 @@
       <c r="G17" s="11">
         <v>0</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
         <v>0</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>13</v>
+      <c r="F18" s="13">
+        <v>0</v>
       </c>
       <c r="G18" s="13">
         <v>0</v>
       </c>
       <c r="H18" s="13">
+        <v>0</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="13">
+        <v>0</v>
+      </c>
+      <c r="M18" s="13">
         <v>14</v>
       </c>
-      <c r="I18" s="13">
+      <c r="N18" s="13">
         <v>1373</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
         <v>0</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>13</v>
+      <c r="F19" s="11">
+        <v>0</v>
       </c>
       <c r="G19" s="11">
         <v>0</v>
       </c>
       <c r="H19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
         <v>106678</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>182468</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
         <v>0</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>13</v>
+      <c r="F20" s="13">
+        <v>0</v>
       </c>
       <c r="G20" s="13">
         <v>0</v>
       </c>
       <c r="H20" s="13">
+        <v>0</v>
+      </c>
+      <c r="I20" s="13">
+        <v>0</v>
+      </c>
+      <c r="J20" s="13">
+        <v>0</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="13">
+        <v>0</v>
+      </c>
+      <c r="M20" s="13">
         <v>168918</v>
       </c>
-      <c r="I20" s="13">
+      <c r="N20" s="13">
         <v>150880</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
@@ -1018,15 +1233,30 @@
         <v>0</v>
       </c>
       <c r="H21" s="15">
+        <v>0</v>
+      </c>
+      <c r="I21" s="15">
+        <v>0</v>
+      </c>
+      <c r="J21" s="15">
+        <v>0</v>
+      </c>
+      <c r="K21" s="15">
+        <v>0</v>
+      </c>
+      <c r="L21" s="15">
+        <v>0</v>
+      </c>
+      <c r="M21" s="15">
         <v>275610</v>
       </c>
-      <c r="I21" s="15">
+      <c r="N21" s="15">
         <v>334721</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -1035,10 +1265,15 @@
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -1057,76 +1292,136 @@
       <c r="I23" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="15">
+        <v>0</v>
+      </c>
+      <c r="K23" s="15">
+        <v>0</v>
+      </c>
+      <c r="L23" s="15">
+        <v>0</v>
+      </c>
+      <c r="M23" s="15">
+        <v>0</v>
+      </c>
+      <c r="N23" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D24" s="19"/>
-      <c r="E24" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>13</v>
+      <c r="E24" s="19">
+        <v>0</v>
+      </c>
+      <c r="F24" s="19">
+        <v>0</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N24" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15">
         <v>0</v>
       </c>
-      <c r="F25" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="15">
-        <v>0</v>
-      </c>
-      <c r="H25" s="15">
-        <v>0</v>
+      <c r="F25" s="15">
+        <v>0</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I25" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="15">
+        <v>0</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="15">
+        <v>0</v>
+      </c>
+      <c r="M25" s="15">
+        <v>0</v>
+      </c>
+      <c r="N25" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19">
+        <v>21705900</v>
+      </c>
+      <c r="F26" s="19">
+        <v>21096007</v>
+      </c>
+      <c r="G26" s="19">
+        <v>21577995</v>
+      </c>
+      <c r="H26" s="19">
+        <v>21601235</v>
+      </c>
+      <c r="I26" s="19">
+        <v>24131026</v>
+      </c>
+      <c r="J26" s="19">
         <v>22691908</v>
       </c>
-      <c r="F26" s="19">
-        <v>0</v>
-      </c>
-      <c r="G26" s="19">
+      <c r="K26" s="19">
+        <v>0</v>
+      </c>
+      <c r="L26" s="19">
         <v>21927543</v>
       </c>
-      <c r="H26" s="19">
+      <c r="M26" s="19">
         <v>24596148</v>
       </c>
-      <c r="I26" s="19">
+      <c r="N26" s="19">
         <v>22306019</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1135,8 +1430,13 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1145,8 +1445,13 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1155,10 +1460,15 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -1177,8 +1487,23 @@
       <c r="I30" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1187,10 +1512,15 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -1199,128 +1529,208 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
+        <v>137065</v>
+      </c>
+      <c r="F33" s="11">
+        <v>107539</v>
+      </c>
+      <c r="G33" s="11">
+        <v>114548</v>
+      </c>
+      <c r="H33" s="11">
+        <v>102253</v>
+      </c>
+      <c r="I33" s="11">
+        <v>122971</v>
+      </c>
+      <c r="J33" s="11">
         <v>132163</v>
       </c>
-      <c r="F33" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="11">
+      <c r="K33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="11">
         <v>117806</v>
       </c>
-      <c r="H33" s="11">
+      <c r="M33" s="11">
         <v>160400</v>
       </c>
-      <c r="I33" s="11">
+      <c r="N33" s="11">
         <v>212038</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
+        <v>485958</v>
+      </c>
+      <c r="F34" s="13">
+        <v>459723</v>
+      </c>
+      <c r="G34" s="13">
+        <v>421650</v>
+      </c>
+      <c r="H34" s="13">
+        <v>493131</v>
+      </c>
+      <c r="I34" s="13">
+        <v>439876</v>
+      </c>
+      <c r="J34" s="13">
         <v>370104</v>
       </c>
-      <c r="F34" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="13">
+      <c r="K34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="13">
         <v>461275</v>
       </c>
-      <c r="H34" s="13">
+      <c r="M34" s="13">
         <v>607702</v>
       </c>
-      <c r="I34" s="13">
+      <c r="N34" s="13">
         <v>747710</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11">
+        <v>2553347</v>
+      </c>
+      <c r="F35" s="11">
+        <v>2783960</v>
+      </c>
+      <c r="G35" s="11">
+        <v>3737832</v>
+      </c>
+      <c r="H35" s="11">
+        <v>4307167</v>
+      </c>
+      <c r="I35" s="11">
+        <v>4767502</v>
+      </c>
+      <c r="J35" s="11">
         <v>3769844</v>
       </c>
-      <c r="F35" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="11">
+      <c r="K35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="11">
         <v>5044081</v>
       </c>
-      <c r="H35" s="11">
+      <c r="M35" s="11">
         <v>5834261</v>
       </c>
-      <c r="I35" s="11">
+      <c r="N35" s="11">
         <v>5559804</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
+        <v>4780146</v>
+      </c>
+      <c r="F36" s="13">
+        <v>5518542</v>
+      </c>
+      <c r="G36" s="13">
+        <v>7625957</v>
+      </c>
+      <c r="H36" s="13">
+        <v>6635100</v>
+      </c>
+      <c r="I36" s="13">
+        <v>7725946</v>
+      </c>
+      <c r="J36" s="13">
         <v>8276645</v>
       </c>
-      <c r="F36" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="13">
+      <c r="K36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="13">
         <v>8580641</v>
       </c>
-      <c r="H36" s="13">
+      <c r="M36" s="13">
         <v>11822764</v>
       </c>
-      <c r="I36" s="13">
+      <c r="N36" s="13">
         <v>11339984</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15">
+        <v>7956516</v>
+      </c>
+      <c r="F37" s="15">
+        <v>8869764</v>
+      </c>
+      <c r="G37" s="15">
+        <v>11899987</v>
+      </c>
+      <c r="H37" s="15">
+        <v>11537651</v>
+      </c>
+      <c r="I37" s="15">
+        <v>13056295</v>
+      </c>
+      <c r="J37" s="15">
         <v>12548756</v>
       </c>
-      <c r="F37" s="15">
-        <v>0</v>
-      </c>
-      <c r="G37" s="15">
+      <c r="K37" s="15">
+        <v>0</v>
+      </c>
+      <c r="L37" s="15">
         <v>14203803</v>
       </c>
-      <c r="H37" s="15">
+      <c r="M37" s="15">
         <v>18425127</v>
       </c>
-      <c r="I37" s="15">
+      <c r="N37" s="15">
         <v>17859536</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -1329,13 +1739,18 @@
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
@@ -1347,88 +1762,148 @@
       <c r="G39" s="11">
         <v>0</v>
       </c>
-      <c r="H39" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H39" s="11">
+        <v>0</v>
+      </c>
+      <c r="I39" s="11">
+        <v>0</v>
+      </c>
+      <c r="J39" s="11">
+        <v>0</v>
+      </c>
+      <c r="K39" s="11">
+        <v>0</v>
+      </c>
+      <c r="L39" s="11">
+        <v>0</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N39" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13">
         <v>0</v>
       </c>
-      <c r="F40" s="13" t="s">
-        <v>13</v>
+      <c r="F40" s="13">
+        <v>0</v>
       </c>
       <c r="G40" s="13">
         <v>0</v>
       </c>
       <c r="H40" s="13">
+        <v>0</v>
+      </c>
+      <c r="I40" s="13">
+        <v>0</v>
+      </c>
+      <c r="J40" s="13">
+        <v>0</v>
+      </c>
+      <c r="K40" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" s="13">
+        <v>0</v>
+      </c>
+      <c r="M40" s="13">
         <v>15</v>
       </c>
-      <c r="I40" s="13">
+      <c r="N40" s="13">
         <v>1001</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
         <v>0</v>
       </c>
-      <c r="F41" s="11" t="s">
-        <v>13</v>
+      <c r="F41" s="11">
+        <v>0</v>
       </c>
       <c r="G41" s="11">
         <v>0</v>
       </c>
       <c r="H41" s="11">
+        <v>0</v>
+      </c>
+      <c r="I41" s="11">
+        <v>0</v>
+      </c>
+      <c r="J41" s="11">
+        <v>0</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" s="11">
+        <v>0</v>
+      </c>
+      <c r="M41" s="11">
         <v>76779</v>
       </c>
-      <c r="I41" s="11">
+      <c r="N41" s="11">
         <v>141076</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13">
         <v>0</v>
       </c>
-      <c r="F42" s="13" t="s">
-        <v>13</v>
+      <c r="F42" s="13">
+        <v>0</v>
       </c>
       <c r="G42" s="13">
         <v>0</v>
       </c>
       <c r="H42" s="13">
+        <v>0</v>
+      </c>
+      <c r="I42" s="13">
+        <v>0</v>
+      </c>
+      <c r="J42" s="13">
+        <v>0</v>
+      </c>
+      <c r="K42" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" s="13">
+        <v>0</v>
+      </c>
+      <c r="M42" s="13">
         <v>120153</v>
       </c>
-      <c r="I42" s="13">
+      <c r="N42" s="13">
         <v>113951</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
@@ -1442,15 +1917,30 @@
         <v>0</v>
       </c>
       <c r="H43" s="15">
+        <v>0</v>
+      </c>
+      <c r="I43" s="15">
+        <v>0</v>
+      </c>
+      <c r="J43" s="15">
+        <v>0</v>
+      </c>
+      <c r="K43" s="15">
+        <v>0</v>
+      </c>
+      <c r="L43" s="15">
+        <v>0</v>
+      </c>
+      <c r="M43" s="15">
         <v>196947</v>
       </c>
-      <c r="I43" s="15">
+      <c r="N43" s="15">
         <v>256028</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
@@ -1459,10 +1949,15 @@
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
@@ -1481,78 +1976,138 @@
       <c r="I45" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="15">
+        <v>0</v>
+      </c>
+      <c r="K45" s="15">
+        <v>0</v>
+      </c>
+      <c r="L45" s="15">
+        <v>0</v>
+      </c>
+      <c r="M45" s="15">
+        <v>0</v>
+      </c>
+      <c r="N45" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D46" s="19"/>
-      <c r="E46" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>13</v>
+      <c r="E46" s="19">
+        <v>0</v>
+      </c>
+      <c r="F46" s="19">
+        <v>0</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I46" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J46" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L46" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M46" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N46" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D47" s="15"/>
       <c r="E47" s="15">
         <v>0</v>
       </c>
-      <c r="F47" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="15">
-        <v>0</v>
-      </c>
-      <c r="H47" s="15">
-        <v>0</v>
+      <c r="F47" s="15">
+        <v>0</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I47" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="15">
+        <v>0</v>
+      </c>
+      <c r="K47" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47" s="15">
+        <v>0</v>
+      </c>
+      <c r="M47" s="15">
+        <v>0</v>
+      </c>
+      <c r="N47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="18" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
       <c r="E48" s="19">
+        <v>7956516</v>
+      </c>
+      <c r="F48" s="19">
+        <v>8869764</v>
+      </c>
+      <c r="G48" s="19">
+        <v>11899987</v>
+      </c>
+      <c r="H48" s="19">
+        <v>11537651</v>
+      </c>
+      <c r="I48" s="19">
+        <v>13056295</v>
+      </c>
+      <c r="J48" s="19">
         <v>12548756</v>
       </c>
-      <c r="F48" s="19">
-        <v>0</v>
-      </c>
-      <c r="G48" s="19">
+      <c r="K48" s="19">
+        <v>0</v>
+      </c>
+      <c r="L48" s="19">
         <v>14203803</v>
       </c>
-      <c r="H48" s="19">
+      <c r="M48" s="19">
         <v>18622074</v>
       </c>
-      <c r="I48" s="19">
+      <c r="N48" s="19">
         <v>18115564</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1561,8 +2116,13 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1571,8 +2131,13 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1581,10 +2146,15 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -1603,8 +2173,23 @@
       <c r="I52" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1613,10 +2198,15 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -1625,106 +2215,171 @@
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
+        <v>312206</v>
+      </c>
+      <c r="F55" s="11">
+        <v>299595</v>
+      </c>
+      <c r="G55" s="11">
+        <v>294372</v>
+      </c>
+      <c r="H55" s="11">
+        <v>293661</v>
+      </c>
+      <c r="I55" s="11">
+        <v>290369</v>
+      </c>
+      <c r="J55" s="11">
         <v>292083</v>
       </c>
-      <c r="F55" s="11">
+      <c r="K55" s="11">
         <v>318824</v>
       </c>
-      <c r="G55" s="11">
+      <c r="L55" s="11">
         <v>414624</v>
       </c>
-      <c r="H55" s="11">
+      <c r="M55" s="11">
         <v>469525</v>
       </c>
-      <c r="I55" s="11">
+      <c r="N55" s="11">
         <v>578912</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
+        <v>548817</v>
+      </c>
+      <c r="F56" s="13">
+        <v>578517</v>
+      </c>
+      <c r="G56" s="13">
+        <v>575604</v>
+      </c>
+      <c r="H56" s="13">
+        <v>579104</v>
+      </c>
+      <c r="I56" s="13">
+        <v>568045</v>
+      </c>
+      <c r="J56" s="13">
         <v>576001</v>
       </c>
-      <c r="F56" s="13">
+      <c r="K56" s="13">
         <v>679709</v>
       </c>
-      <c r="G56" s="13">
+      <c r="L56" s="13">
         <v>732501</v>
       </c>
-      <c r="H56" s="13">
+      <c r="M56" s="13">
         <v>823907</v>
       </c>
-      <c r="I56" s="13">
+      <c r="N56" s="13">
         <v>1096143</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
+        <v>374011</v>
+      </c>
+      <c r="F57" s="11">
+        <v>410542</v>
+      </c>
+      <c r="G57" s="11">
+        <v>556686</v>
+      </c>
+      <c r="H57" s="11">
+        <v>548692</v>
+      </c>
+      <c r="I57" s="11">
+        <v>548813</v>
+      </c>
+      <c r="J57" s="11">
         <v>562362</v>
       </c>
-      <c r="F57" s="11">
+      <c r="K57" s="11">
         <v>624644</v>
       </c>
-      <c r="G57" s="11">
+      <c r="L57" s="11">
         <v>638473</v>
       </c>
-      <c r="H57" s="11">
+      <c r="M57" s="11">
         <v>734615</v>
       </c>
-      <c r="I57" s="11">
+      <c r="N57" s="11">
         <v>813134</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
+        <v>352661</v>
+      </c>
+      <c r="F58" s="13">
+        <v>419304</v>
+      </c>
+      <c r="G58" s="13">
+        <v>554942</v>
+      </c>
+      <c r="H58" s="13">
+        <v>528625</v>
+      </c>
+      <c r="I58" s="13">
+        <v>542315</v>
+      </c>
+      <c r="J58" s="13">
         <v>555730</v>
       </c>
-      <c r="F58" s="13">
+      <c r="K58" s="13">
         <v>593648</v>
       </c>
-      <c r="G58" s="13">
+      <c r="L58" s="13">
         <v>654338</v>
       </c>
-      <c r="H58" s="13">
+      <c r="M58" s="13">
         <v>772760</v>
       </c>
-      <c r="I58" s="13">
+      <c r="N58" s="13">
         <v>805088</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -1733,104 +2388,169 @@
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K60" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L60" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M60" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N60" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H61" s="13">
+        <v>18</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J61" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K61" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L61" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M61" s="13">
         <v>1071429</v>
       </c>
-      <c r="I61" s="13">
+      <c r="N61" s="13">
         <v>729060</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H62" s="11">
+        <v>18</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M62" s="11">
         <v>719727</v>
       </c>
-      <c r="I62" s="11">
+      <c r="N62" s="11">
         <v>773155</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H63" s="13">
+        <v>18</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J63" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K63" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L63" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M63" s="13">
         <v>711310</v>
       </c>
-      <c r="I63" s="13">
+      <c r="N63" s="13">
         <v>755243</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1839,8 +2559,13 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1849,8 +2574,13 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1859,10 +2589,15 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -1881,8 +2616,23 @@
       <c r="I67" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L67" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M67" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1891,10 +2641,15 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -1903,128 +2658,208 @@
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
+        <v>-113856</v>
+      </c>
+      <c r="F70" s="11">
+        <v>-138858</v>
+      </c>
+      <c r="G70" s="11">
+        <v>-44462</v>
+      </c>
+      <c r="H70" s="11">
+        <v>-135160</v>
+      </c>
+      <c r="I70" s="11">
+        <v>-63477</v>
+      </c>
+      <c r="J70" s="11">
         <v>-103306</v>
       </c>
-      <c r="F70" s="11">
+      <c r="K70" s="11">
         <v>-116596</v>
       </c>
-      <c r="G70" s="11">
+      <c r="L70" s="11">
         <v>-131656</v>
       </c>
-      <c r="H70" s="11">
+      <c r="M70" s="11">
         <v>-221255</v>
       </c>
-      <c r="I70" s="11">
+      <c r="N70" s="11">
         <v>-64891</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D71" s="13"/>
       <c r="E71" s="13">
+        <v>-244901</v>
+      </c>
+      <c r="F71" s="13">
+        <v>-301339</v>
+      </c>
+      <c r="G71" s="13">
+        <v>-297986</v>
+      </c>
+      <c r="H71" s="13">
+        <v>-370160</v>
+      </c>
+      <c r="I71" s="13">
+        <v>-440341</v>
+      </c>
+      <c r="J71" s="13">
         <v>-421513</v>
       </c>
-      <c r="F71" s="13">
+      <c r="K71" s="13">
         <v>-271505</v>
       </c>
-      <c r="G71" s="13">
+      <c r="L71" s="13">
         <v>-472950</v>
       </c>
-      <c r="H71" s="13">
+      <c r="M71" s="13">
         <v>-337910</v>
       </c>
-      <c r="I71" s="13">
+      <c r="N71" s="13">
         <v>-769467</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
+        <v>-1750770</v>
+      </c>
+      <c r="F72" s="11">
+        <v>-2575717</v>
+      </c>
+      <c r="G72" s="11">
+        <v>-2945314</v>
+      </c>
+      <c r="H72" s="11">
+        <v>-3315860</v>
+      </c>
+      <c r="I72" s="11">
+        <v>-5571588</v>
+      </c>
+      <c r="J72" s="11">
         <v>-3722076</v>
       </c>
-      <c r="F72" s="11">
+      <c r="K72" s="11">
         <v>-3416116</v>
       </c>
-      <c r="G72" s="11">
+      <c r="L72" s="11">
         <v>-5041057</v>
       </c>
-      <c r="H72" s="11">
+      <c r="M72" s="11">
         <v>-6490601</v>
       </c>
-      <c r="I72" s="11">
+      <c r="N72" s="11">
         <v>-4382235</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="13">
+        <v>-3152949</v>
+      </c>
+      <c r="F73" s="13">
+        <v>-4488140</v>
+      </c>
+      <c r="G73" s="13">
+        <v>-6311755</v>
+      </c>
+      <c r="H73" s="13">
+        <v>-6227704</v>
+      </c>
+      <c r="I73" s="13">
+        <v>-6985026</v>
+      </c>
+      <c r="J73" s="13">
         <v>-7771513</v>
       </c>
-      <c r="F73" s="13">
+      <c r="K73" s="13">
         <v>-7901292</v>
       </c>
-      <c r="G73" s="13">
+      <c r="L73" s="13">
         <v>-9086290</v>
       </c>
-      <c r="H73" s="13">
+      <c r="M73" s="13">
         <v>-9668446</v>
       </c>
-      <c r="I73" s="13">
+      <c r="N73" s="13">
         <v>-8718372</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="14" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15">
+        <v>-5262476</v>
+      </c>
+      <c r="F74" s="15">
+        <v>-7504054</v>
+      </c>
+      <c r="G74" s="15">
+        <v>-9599517</v>
+      </c>
+      <c r="H74" s="15">
+        <v>-10048884</v>
+      </c>
+      <c r="I74" s="15">
+        <v>-13060432</v>
+      </c>
+      <c r="J74" s="15">
         <v>-12018408</v>
       </c>
-      <c r="F74" s="15">
+      <c r="K74" s="15">
         <v>-11705509</v>
       </c>
-      <c r="G74" s="15">
+      <c r="L74" s="15">
         <v>-14731953</v>
       </c>
-      <c r="H74" s="15">
+      <c r="M74" s="15">
         <v>-16718212</v>
       </c>
-      <c r="I74" s="15">
+      <c r="N74" s="15">
         <v>-13934965</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -2033,13 +2868,18 @@
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
@@ -2051,19 +2891,34 @@
       <c r="G76" s="11">
         <v>0</v>
       </c>
-      <c r="H76" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I76" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H76" s="11">
+        <v>0</v>
+      </c>
+      <c r="I76" s="11">
+        <v>0</v>
+      </c>
+      <c r="J76" s="11">
+        <v>0</v>
+      </c>
+      <c r="K76" s="11">
+        <v>0</v>
+      </c>
+      <c r="L76" s="11">
+        <v>0</v>
+      </c>
+      <c r="M76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N76" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="13">
@@ -2076,18 +2931,33 @@
         <v>0</v>
       </c>
       <c r="H77" s="13">
+        <v>0</v>
+      </c>
+      <c r="I77" s="13">
+        <v>0</v>
+      </c>
+      <c r="J77" s="13">
+        <v>0</v>
+      </c>
+      <c r="K77" s="13">
+        <v>0</v>
+      </c>
+      <c r="L77" s="13">
+        <v>0</v>
+      </c>
+      <c r="M77" s="13">
         <v>-9</v>
       </c>
-      <c r="I77" s="13">
+      <c r="N77" s="13">
         <v>-1061</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
@@ -2100,18 +2970,33 @@
         <v>0</v>
       </c>
       <c r="H78" s="11">
+        <v>0</v>
+      </c>
+      <c r="I78" s="11">
+        <v>0</v>
+      </c>
+      <c r="J78" s="11">
+        <v>0</v>
+      </c>
+      <c r="K78" s="11">
+        <v>0</v>
+      </c>
+      <c r="L78" s="11">
+        <v>0</v>
+      </c>
+      <c r="M78" s="11">
         <v>-77652</v>
       </c>
-      <c r="I78" s="11">
+      <c r="N78" s="11">
         <v>-125237</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D79" s="13"/>
       <c r="E79" s="13">
@@ -2124,15 +3009,30 @@
         <v>0</v>
       </c>
       <c r="H79" s="13">
+        <v>0</v>
+      </c>
+      <c r="I79" s="13">
+        <v>0</v>
+      </c>
+      <c r="J79" s="13">
+        <v>0</v>
+      </c>
+      <c r="K79" s="13">
+        <v>0</v>
+      </c>
+      <c r="L79" s="13">
+        <v>0</v>
+      </c>
+      <c r="M79" s="13">
         <v>-111499</v>
       </c>
-      <c r="I79" s="13">
+      <c r="N79" s="13">
         <v>-95235</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="14" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C80" s="15"/>
       <c r="D80" s="15"/>
@@ -2146,15 +3046,30 @@
         <v>0</v>
       </c>
       <c r="H80" s="15">
+        <v>0</v>
+      </c>
+      <c r="I80" s="15">
+        <v>0</v>
+      </c>
+      <c r="J80" s="15">
+        <v>0</v>
+      </c>
+      <c r="K80" s="15">
+        <v>0</v>
+      </c>
+      <c r="L80" s="15">
+        <v>0</v>
+      </c>
+      <c r="M80" s="15">
         <v>-189160</v>
       </c>
-      <c r="I80" s="15">
+      <c r="N80" s="15">
         <v>-221533</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C81" s="17"/>
       <c r="D81" s="17"/>
@@ -2163,10 +3078,15 @@
       <c r="G81" s="17"/>
       <c r="H81" s="17"/>
       <c r="I81" s="17"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="14" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
@@ -2185,37 +3105,67 @@
       <c r="I82" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="15">
+        <v>0</v>
+      </c>
+      <c r="K82" s="15">
+        <v>0</v>
+      </c>
+      <c r="L82" s="15">
+        <v>0</v>
+      </c>
+      <c r="M82" s="15">
+        <v>0</v>
+      </c>
+      <c r="N82" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D83" s="19"/>
-      <c r="E83" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" s="19" t="s">
-        <v>13</v>
+      <c r="E83" s="19">
+        <v>0</v>
+      </c>
+      <c r="F83" s="19">
+        <v>0</v>
       </c>
       <c r="G83" s="19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H83" s="19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I83" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J83" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K83" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L83" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M83" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N83" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D84" s="15"/>
       <c r="E84" s="15">
@@ -2224,39 +3174,69 @@
       <c r="F84" s="15">
         <v>0</v>
       </c>
-      <c r="G84" s="15">
-        <v>0</v>
-      </c>
-      <c r="H84" s="15">
-        <v>0</v>
+      <c r="G84" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H84" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I84" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="15">
+        <v>0</v>
+      </c>
+      <c r="K84" s="15">
+        <v>0</v>
+      </c>
+      <c r="L84" s="15">
+        <v>0</v>
+      </c>
+      <c r="M84" s="15">
+        <v>0</v>
+      </c>
+      <c r="N84" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="18" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C85" s="19"/>
       <c r="D85" s="19"/>
       <c r="E85" s="19">
+        <v>-5262476</v>
+      </c>
+      <c r="F85" s="19">
+        <v>-7504054</v>
+      </c>
+      <c r="G85" s="19">
+        <v>-9599517</v>
+      </c>
+      <c r="H85" s="19">
+        <v>-10048884</v>
+      </c>
+      <c r="I85" s="19">
+        <v>-13060432</v>
+      </c>
+      <c r="J85" s="19">
         <v>-12018408</v>
       </c>
-      <c r="F85" s="19">
+      <c r="K85" s="19">
         <v>-11705509</v>
       </c>
-      <c r="G85" s="19">
+      <c r="L85" s="19">
         <v>-14731953</v>
       </c>
-      <c r="H85" s="19">
+      <c r="M85" s="19">
         <v>-16907372</v>
       </c>
-      <c r="I85" s="19">
+      <c r="N85" s="19">
         <v>-14156498</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2265,8 +3245,13 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2275,8 +3260,13 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2285,10 +3275,15 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -2307,8 +3302,23 @@
       <c r="I89" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L89" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M89" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N89" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2317,10 +3327,15 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
@@ -2329,128 +3344,208 @@
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11">
+        <v>23209</v>
+      </c>
+      <c r="F92" s="11">
+        <v>-31319</v>
+      </c>
+      <c r="G92" s="11">
+        <v>70086</v>
+      </c>
+      <c r="H92" s="11">
+        <v>-32907</v>
+      </c>
+      <c r="I92" s="11">
+        <v>59494</v>
+      </c>
+      <c r="J92" s="11">
         <v>28855</v>
       </c>
-      <c r="F92" s="11">
+      <c r="K92" s="11">
         <v>-7463</v>
       </c>
-      <c r="G92" s="11">
+      <c r="L92" s="11">
         <v>-13850</v>
       </c>
-      <c r="H92" s="11">
+      <c r="M92" s="11">
         <v>-60855</v>
       </c>
-      <c r="I92" s="11">
+      <c r="N92" s="11">
         <v>147147</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D93" s="13"/>
       <c r="E93" s="13">
+        <v>241057</v>
+      </c>
+      <c r="F93" s="13">
+        <v>158384</v>
+      </c>
+      <c r="G93" s="13">
+        <v>123664</v>
+      </c>
+      <c r="H93" s="13">
+        <v>122971</v>
+      </c>
+      <c r="I93" s="13">
+        <v>-465</v>
+      </c>
+      <c r="J93" s="13">
         <v>-51408</v>
       </c>
-      <c r="F93" s="13">
+      <c r="K93" s="13">
         <v>172250</v>
       </c>
-      <c r="G93" s="13">
+      <c r="L93" s="13">
         <v>-11675</v>
       </c>
-      <c r="H93" s="13">
+      <c r="M93" s="13">
         <v>269792</v>
       </c>
-      <c r="I93" s="13">
+      <c r="N93" s="13">
         <v>-21757</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11">
+        <v>802577</v>
+      </c>
+      <c r="F94" s="11">
+        <v>208243</v>
+      </c>
+      <c r="G94" s="11">
+        <v>792518</v>
+      </c>
+      <c r="H94" s="11">
+        <v>991307</v>
+      </c>
+      <c r="I94" s="11">
+        <v>-804086</v>
+      </c>
+      <c r="J94" s="11">
         <v>47769</v>
       </c>
-      <c r="F94" s="11">
+      <c r="K94" s="11">
         <v>507596</v>
       </c>
-      <c r="G94" s="11">
+      <c r="L94" s="11">
         <v>3024</v>
       </c>
-      <c r="H94" s="11">
+      <c r="M94" s="11">
         <v>-656340</v>
       </c>
-      <c r="I94" s="11">
+      <c r="N94" s="11">
         <v>1177569</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D95" s="13"/>
       <c r="E95" s="13">
+        <v>1627197</v>
+      </c>
+      <c r="F95" s="13">
+        <v>1030402</v>
+      </c>
+      <c r="G95" s="13">
+        <v>1314202</v>
+      </c>
+      <c r="H95" s="13">
+        <v>407396</v>
+      </c>
+      <c r="I95" s="13">
+        <v>740920</v>
+      </c>
+      <c r="J95" s="13">
         <v>505132</v>
       </c>
-      <c r="F95" s="13">
+      <c r="K95" s="13">
         <v>244822</v>
       </c>
-      <c r="G95" s="13">
+      <c r="L95" s="13">
         <v>-505649</v>
       </c>
-      <c r="H95" s="13">
+      <c r="M95" s="13">
         <v>2154318</v>
       </c>
-      <c r="I95" s="13">
+      <c r="N95" s="13">
         <v>2621612</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C96" s="15"/>
       <c r="D96" s="15"/>
       <c r="E96" s="15">
+        <v>2694040</v>
+      </c>
+      <c r="F96" s="15">
+        <v>1365710</v>
+      </c>
+      <c r="G96" s="15">
+        <v>2300470</v>
+      </c>
+      <c r="H96" s="15">
+        <v>1488767</v>
+      </c>
+      <c r="I96" s="15">
+        <v>-4137</v>
+      </c>
+      <c r="J96" s="15">
         <v>530348</v>
       </c>
-      <c r="F96" s="15">
+      <c r="K96" s="15">
         <v>917205</v>
       </c>
-      <c r="G96" s="15">
+      <c r="L96" s="15">
         <v>-528150</v>
       </c>
-      <c r="H96" s="15">
+      <c r="M96" s="15">
         <v>1706915</v>
       </c>
-      <c r="I96" s="15">
+      <c r="N96" s="15">
         <v>3924571</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
@@ -2459,13 +3554,18 @@
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="9"/>
+      <c r="M97" s="9"/>
+      <c r="N97" s="9"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11">
@@ -2477,19 +3577,34 @@
       <c r="G98" s="11">
         <v>0</v>
       </c>
-      <c r="H98" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I98" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H98" s="11">
+        <v>0</v>
+      </c>
+      <c r="I98" s="11">
+        <v>0</v>
+      </c>
+      <c r="J98" s="11">
+        <v>0</v>
+      </c>
+      <c r="K98" s="11">
+        <v>0</v>
+      </c>
+      <c r="L98" s="11">
+        <v>0</v>
+      </c>
+      <c r="M98" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N98" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D99" s="13"/>
       <c r="E99" s="13">
@@ -2502,18 +3617,33 @@
         <v>0</v>
       </c>
       <c r="H99" s="13">
+        <v>0</v>
+      </c>
+      <c r="I99" s="13">
+        <v>0</v>
+      </c>
+      <c r="J99" s="13">
+        <v>0</v>
+      </c>
+      <c r="K99" s="13">
+        <v>0</v>
+      </c>
+      <c r="L99" s="13">
+        <v>0</v>
+      </c>
+      <c r="M99" s="13">
         <v>6</v>
       </c>
-      <c r="I99" s="13">
+      <c r="N99" s="13">
         <v>-60</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
@@ -2526,18 +3656,33 @@
         <v>0</v>
       </c>
       <c r="H100" s="11">
+        <v>0</v>
+      </c>
+      <c r="I100" s="11">
+        <v>0</v>
+      </c>
+      <c r="J100" s="11">
+        <v>0</v>
+      </c>
+      <c r="K100" s="11">
+        <v>0</v>
+      </c>
+      <c r="L100" s="11">
+        <v>0</v>
+      </c>
+      <c r="M100" s="11">
         <v>-873</v>
       </c>
-      <c r="I100" s="11">
+      <c r="N100" s="11">
         <v>15839</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D101" s="13"/>
       <c r="E101" s="13">
@@ -2550,15 +3695,30 @@
         <v>0</v>
       </c>
       <c r="H101" s="13">
+        <v>0</v>
+      </c>
+      <c r="I101" s="13">
+        <v>0</v>
+      </c>
+      <c r="J101" s="13">
+        <v>0</v>
+      </c>
+      <c r="K101" s="13">
+        <v>0</v>
+      </c>
+      <c r="L101" s="13">
+        <v>0</v>
+      </c>
+      <c r="M101" s="13">
         <v>8654</v>
       </c>
-      <c r="I101" s="13">
+      <c r="N101" s="13">
         <v>18716</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="14" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C102" s="15"/>
       <c r="D102" s="15"/>
@@ -2572,15 +3732,30 @@
         <v>0</v>
       </c>
       <c r="H102" s="15">
+        <v>0</v>
+      </c>
+      <c r="I102" s="15">
+        <v>0</v>
+      </c>
+      <c r="J102" s="15">
+        <v>0</v>
+      </c>
+      <c r="K102" s="15">
+        <v>0</v>
+      </c>
+      <c r="L102" s="15">
+        <v>0</v>
+      </c>
+      <c r="M102" s="15">
         <v>7787</v>
       </c>
-      <c r="I102" s="15">
+      <c r="N102" s="15">
         <v>34495</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C103" s="17"/>
       <c r="D103" s="17"/>
@@ -2589,10 +3764,15 @@
       <c r="G103" s="17"/>
       <c r="H103" s="17"/>
       <c r="I103" s="17"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J103" s="17"/>
+      <c r="K103" s="17"/>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C104" s="15"/>
       <c r="D104" s="15"/>
@@ -2611,26 +3791,56 @@
       <c r="I104" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J104" s="15">
+        <v>0</v>
+      </c>
+      <c r="K104" s="15">
+        <v>0</v>
+      </c>
+      <c r="L104" s="15">
+        <v>0</v>
+      </c>
+      <c r="M104" s="15">
+        <v>0</v>
+      </c>
+      <c r="N104" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="18" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C105" s="19"/>
       <c r="D105" s="19"/>
       <c r="E105" s="19">
+        <v>2694040</v>
+      </c>
+      <c r="F105" s="19">
+        <v>1365710</v>
+      </c>
+      <c r="G105" s="19">
+        <v>2300470</v>
+      </c>
+      <c r="H105" s="19">
+        <v>1488767</v>
+      </c>
+      <c r="I105" s="19">
+        <v>-4137</v>
+      </c>
+      <c r="J105" s="19">
         <v>530348</v>
       </c>
-      <c r="F105" s="19">
+      <c r="K105" s="19">
         <v>917205</v>
       </c>
-      <c r="G105" s="19">
+      <c r="L105" s="19">
         <v>-528150</v>
       </c>
-      <c r="H105" s="19">
+      <c r="M105" s="19">
         <v>1714702</v>
       </c>
-      <c r="I105" s="19">
+      <c r="N105" s="19">
         <v>3959066</v>
       </c>
     </row>

--- a/database/industries/lastic/pekerman/product/quarterly_seprated.xlsx
+++ b/database/industries/lastic/pekerman/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekerman\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekerman\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0D6EE3-CDEB-4F78-872A-C49BC2673708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD23FBFF-7730-493A-87E5-706DC0B25EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -664,12 +664,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -684,7 +684,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -701,7 +701,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -718,7 +718,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -733,7 +733,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -750,7 +750,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -767,7 +767,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -782,7 +782,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -819,7 +819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -834,7 +834,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -851,7 +851,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -890,7 +890,7 @@
         <v>366270</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
@@ -929,7 +929,7 @@
         <v>682128</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -968,7 +968,7 @@
         <v>6837497</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>14085403</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
         <v>22</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>21971298</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
@@ -1061,7 +1061,7 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>19</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>20</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>182468</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>21</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>150880</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>24</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>334721</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>25</v>
       </c>
@@ -1271,7 +1271,7 @@
       <c r="M22" s="17"/>
       <c r="N22" s="17"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>26</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
         <v>27</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>29</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="18" t="s">
         <v>30</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>22306019</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1436,7 +1436,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1451,7 +1451,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1466,7 +1466,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>31</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1518,7 +1518,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>32</v>
       </c>
@@ -1535,7 +1535,7 @@
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>16</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>212038</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>19</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>747710</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>20</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>5559804</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>21</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>11339984</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>22</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>17859536</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>34</v>
       </c>
@@ -1745,7 +1745,7 @@
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>16</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>19</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>20</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>141076</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>21</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>113951</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>24</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>256028</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="16" t="s">
         <v>35</v>
       </c>
@@ -1955,7 +1955,7 @@
       <c r="M44" s="17"/>
       <c r="N44" s="17"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>26</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="18" t="s">
         <v>27</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>29</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="18" t="s">
         <v>30</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>18115564</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2122,7 +2122,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2137,7 +2137,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2152,7 +2152,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>36</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2204,7 +2204,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>37</v>
       </c>
@@ -2221,7 +2221,7 @@
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>16</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>578912</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>19</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>1096143</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>20</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>813134</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>21</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>805088</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>39</v>
       </c>
@@ -2394,7 +2394,7 @@
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>16</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="12" t="s">
         <v>19</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>729060</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>20</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>773155</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="12" t="s">
         <v>21</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>755243</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2565,7 +2565,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2580,7 +2580,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2595,7 +2595,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
         <v>40</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2647,7 +2647,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>41</v>
       </c>
@@ -2664,7 +2664,7 @@
       <c r="M69" s="9"/>
       <c r="N69" s="9"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>16</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>-64891</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="12" t="s">
         <v>19</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>-769467</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>20</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>-4382235</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="12" t="s">
         <v>21</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>-8718372</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="14" t="s">
         <v>42</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>-13934965</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>43</v>
       </c>
@@ -2874,7 +2874,7 @@
       <c r="M75" s="9"/>
       <c r="N75" s="9"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>16</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
         <v>19</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>-1061</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>20</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>-125237</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
         <v>21</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>-95235</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="14" t="s">
         <v>44</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>-221533</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="16" t="s">
         <v>45</v>
       </c>
@@ -3084,7 +3084,7 @@
       <c r="M81" s="17"/>
       <c r="N81" s="17"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="14" t="s">
         <v>46</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="18" t="s">
         <v>27</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="14" t="s">
         <v>29</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="18" t="s">
         <v>30</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>-14156498</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3251,7 +3251,7 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3266,7 +3266,7 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3281,7 +3281,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
         <v>47</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3333,7 +3333,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>48</v>
       </c>
@@ -3350,7 +3350,7 @@
       <c r="M91" s="9"/>
       <c r="N91" s="9"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>16</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>147147</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="12" t="s">
         <v>19</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>-21757</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>20</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>1177569</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="12" t="s">
         <v>21</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>2621612</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="14" t="s">
         <v>49</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>3924571</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>50</v>
       </c>
@@ -3560,7 +3560,7 @@
       <c r="M97" s="9"/>
       <c r="N97" s="9"/>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>16</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="12" t="s">
         <v>19</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>20</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>15839</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="12" t="s">
         <v>21</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>18716</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="14" t="s">
         <v>51</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>34495</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="16" t="s">
         <v>52</v>
       </c>
@@ -3770,7 +3770,7 @@
       <c r="M103" s="17"/>
       <c r="N103" s="17"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="14" t="s">
         <v>53</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="18" t="s">
         <v>30</v>
       </c>
